--- a/news_data/2017_07.xlsx
+++ b/news_data/2017_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,58 +22,154 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>‘떠나요, 제주도 푸른밤으로’…8월 추천 관광 10선</t>
+  </si>
+  <si>
+    <t>제주도로 관광왔다가 말다툼 끝에 모친 찌른 중국인 중형</t>
+  </si>
+  <si>
+    <t>제주도, 석부작 박물관과 녹색관광지 만들기 '맞손'</t>
+  </si>
+  <si>
+    <t>이효리 "방송 이후 제주도 집에 아침·저녁으로 관광객 찾아와"</t>
+  </si>
+  <si>
+    <t>지역주민 “제주도, 오라관광단지 개발사업 절차 신속 이행” 촉구</t>
+  </si>
+  <si>
+    <t>제주도 관광마케팅단, 중동까지 관광시장 다변화 '온힘'</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 500억원 융자</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지 개발사업 자본검증은 도민의 뜻"</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지의 흑돼지 맛집 ‘돈가득’, 여름철 보양식으로 인...</t>
+  </si>
+  <si>
+    <t>제주도 관광교육종합계획 추진</t>
+  </si>
+  <si>
+    <t>제주도 오설록 맛집 ‘알동네집’, 제주 흑돼지 ‘자투리고기’로 관광객 입맛...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 절물자연휴양림 탐방</t>
+  </si>
+  <si>
+    <t>이승찬 제주도 관광국장</t>
+  </si>
+  <si>
+    <t>제주도, 관광명소·버스에 ‘공공 와이파이’ 서비스</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 43곳 지정</t>
+  </si>
+  <si>
+    <t>“제주도, 예술관광의 섬으로”… 아트제주2017 개막</t>
+  </si>
+  <si>
+    <t>효도 관광, 마음 편한 '제주도'로 보내드리자</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회 7월 친선골프대회</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어</t>
+  </si>
+  <si>
+    <t>여름철 휴가 시즌… 제주도 관광지와 맛집 탐방으로 즐길 수 있어</t>
+  </si>
+  <si>
     <t>오라관광단지 편법행정 비판에 제주도 강력 반박</t>
   </si>
   <si>
-    <t>효도 관광, 마음 편한 '제주도'로 보내드리자</t>
-  </si>
-  <si>
     <t>제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요"</t>
   </si>
   <si>
     <t>제주도, 상반기 우수관광사업체 43개 지정</t>
   </si>
   <si>
-    <t>제주도관광협회 골프동호회 7월 친선골프대회</t>
-  </si>
-  <si>
     <t>제주도 2017년 우수관광사업체 지정...선정된 43곳은?</t>
   </si>
   <si>
-    <t>제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어</t>
-  </si>
-  <si>
-    <t>여름철 휴가 시즌… 제주도 관광지와 맛집 탐방으로 즐길 수 있어</t>
-  </si>
-  <si>
     <t>제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치</t>
   </si>
   <si>
-    <t>오라관광단지 편법행정 비판에 제주도 강력 반박 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 오라관광단지 편법행정 비판에 제주도 강력 반박 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 오라관광단지 편법행정 비판에 제주도 강력 반박 제주CBS 이인 기자 메일보내기 2017-07-05 16:17 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 이승찬 제주도 관광국장 "도민 입장과 이익이 우선" 이승찬 제주도 관광국장이 5일 도청 기자실에서 오라관광단지 조성사업에 대한 자본검증 이유를 설명하고 있다. (사진=이인 기자) 제주 오라관광단지 전 사업자가 원희룡 도정의 선(先) 자본검증을 편법행정이라고 비판한 데 대해 제주도가 반박하고 나섰다. 도민 사회의 의혹을 해소하기 위한 것으로 도민의 입장과 이익을 우선 고려한 조치라는 게 제주도의 입장이다. 박영조 전 JCC(주) 회장이 원희룡 도정을 성토한 가운데 제주도 이승찬 관광국장은 5일 도청 기자실에서 브리핑을 갖고 제주 오라관광단지 조성 사업에 대한 선(先) 자본검증의 이유를 조목조목 설명했다. 이 국장은 오라관광단지 사업의 경우 유사 이래 최대 규모의 자본이 투자되는 사업이어서 자본의 실체와 조달가능여부에 대해 도민사회로부터 검증의 필요성이 제기됐다고 말했다. 이에 제주도의회가 환경영향평가 동의안 처리 전에 자본검증을 실시해달라는 공식 요청을 했고 제주도가 이를 수용한 것이라고 이 국장은 강조했다. 도민 사회의 의문과 우려를 해소하고 도의회의 심도 있는 심의에도 도움이 될 것으로 판단해 선(先) 자본검증 요청을 받아들였다는 것이다. 제주도는 당초 도의회에서 환경영향평가 동의안이 처리되고 사업승인 신청서가 제출되면 자본검증을 실시할 계획이었다. 이 국장은 또 박영조 전 JCC 회장이 자본검증위원회를 통한 자본검증은 조례와 규정에도 없고 세계 어느 나라에도 없다고 주장한 데 대해서는 자본조달계획 등을 확인하는 절차라고 해명했다. 이 국장은 자본검증이란 용어는 법적으로 명시되지는 않았지만 각종 개발사업의 사전 절차가 이행된 뒤 사업자로부터 승인 신청서가 제출되면 투자계획과 자본조달계획 등을 확인하고 있다며 이는 곧 자본검증이라 할 수 있다고 말했다. 제주도는 선(先) 자본검증을 수용한 이후 JCC측과 한 차례 만났다는 사실도 공개했다. 이승찬 국장은 환경영향평가 동의안 처리 전 자본검증을 하게 된 이유를 설명했고 JCC측에서는 당초 절차대로 가지 않은 데 대한 지적을 했다며 대화 내용을 소개했다. 자본검증을 언제까지 완료할 지에 대해서는 여전히 확답을 피했다. 이 국장은 자본검증의 기준과 규모, 범위 등을 실무적으로 논의하고 있는 단계라며 얼마나 걸릴지 현 단계에서는 말할 수 없고 로드맵이 확정되면 투명하게 공개하는 시간을 별도로 갖겠다고 설명했다. 오라관광단지뿐만 아니라 일정규모의 개발사업에 대해서는 행정절차 초기 단계에 자본검증을 실시할 것이며 그 근거 마련을 위한 조례개정도 서두르겠다고 이 국장은 밝혔다. 오라관광단지 자본검증을 계기로 중국자본은 물론 전반적인 국내외 자본에 대한 심도있는 검증을 통해 속칭 '먹튀' 사례가 발생하지 않도록 만전을 기하겠다는 것이다. 박 전 회장이 법적 절차인 6개 심의위원회 결정을 무력화했다고 주장한 데 대해서도 이 국장은 제주의 주요 환경분야인 지하수 사용량 최소화 등을 추가로 보완 요구한 것일 뿐 원희룡 지사가 각종 위원회의 심의결정을 일방적으로 무력화한 사실이 없음을 분명히 밝힌다고 반박했다. 이 국장은 이어 사업자의 입장도 이해하지만 제주도는 도민의 입장을 결코 간과할 수 없다며 도민의 이익을 중심으로 결정할 수밖에 없다고 말했다. 제주 오라관광단지는 JCC(주) 제주시 오라2동 일대 357만5천㎡ 부지에 오는 2021년까지 총사업비 5조2천억 원을 투입해 관광호텔(2천3백 실 규모)과 콘도(1270실 규모), 휴양문화시설, 상업시설, 골프장(18홀 규모) 등을 짓는 도내 최대 규모의 개발 사업이다.JCC 지분은 최근 중국자산관리공사 기업인 화융에 100% 이전됐고 박영조 전 JCC 회장은 4일 기자회견을 통해 원희룡 도정이 비법적, 편법 행정으로 오라관광단지 사업의 인허가를 지연시키고 있다며 성토했고 '편법, 탈법 행정으로 희생양이 된 제주 오라관광단지 호소문'을 제주도에 전달하기도 했다. 더 클릭 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 北, 자강도서 IRBM 발사…일본 상공 통과해 태평양 낙하 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' 英트러스 정부, 부자 감세 '철회'…뉴욕증시 반등 북핵·국감·경기악화, 尹 '위기의 10월' …"민생 전념하겠다" 인플레감축법 美산업계는 '면제' 요구…누더기 되나 尹 "北 무모한 도발, 국제사회 결연한 대응 직면할 것" 마지막 남은 '방역 의무' 실내마스크…다른 나라들은 어떨까 제주CBS 이인 기자 메일 네이버 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+    <t>‘떠나요, 제주도 푸른밤으로’…8월 추천 관광 10선 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 ‘떠나요, 제주도 푸른밤으로’…8월 추천 관광 10선 (제주=뉴스1) 안서연 기자					| 2017-07-20 11:36 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 제주관광공사는 제주의 매력이 도드라지는 8월을 맞아 ‘야~夜! 제주에서 놀자’를 주제로 제주관광 추천 10선을 20일 발표했다. ◇ 노을과 달빛 별빛 그리고 바람의 트레킹 © News1 제주의 밤은 노을을 밀어낸 바람과 별빛 사이로 내려온다. 보행자의 걸음보다 빠른 속도로 어둠이 달음질하면 오름 풀숲에 하나 둘 켜지는 작은 불빛. 야간 오름 트레킹을 하는 사람들이 켠 헤드랜턴 불빛이다. 밤에 오름에 오른 사람들이 경험하는 건 먹색으로 칠해진 제주가 아닌 주변 오름군락의 실루엣과 별빛, 그리고 불 켜진 한치잡이 배들이 만드는 풍경이다.서귀포와 산방산을 볼 수 있는 군산, 자연적으로 생성된 못이 있는 정물오름, 별 보기에도 좋은 새별오름, 능선이 아름다운 용눈이오름뿐만 아니라 사람들이 많이 찾는 곳이라면 어디든 좋다. 오름은 왕복 시간이 1시간 내외이므로 해가 지기 전에 올라 오름의 정상에서 일몰을 보거나 어둑어둑할 때 올라가 별과 야경을 보는 것도 좋다. 안전을 위해 2명 이상 그룹을 지어 올라가는 것을 권한다. 트레킹화나 운동화, 헤드랜턴은 필수다. ◇ 밤코냉이들의 힙 플레이스 © News1 저녁이 되면 슬슬 밖으로 나가 사람들을 만나는 걸 좋아하는 올빼미족들. 제주어로 밤코냉이라고 부르는 이들을 위한 핫한 공간이 제주의 밤을 들썩인다. 인디밴드나 가수들의 라이브 공연이 열리는 구좌읍의 벨롱, 금능에 있는 제주의 스탠다드 라이브 재즈 클럽 Take Five, 애월의 음악다방 마틸다는 음악을 좋아하는 사람들이 귀기울일 만한 곳이다. 춤추는 것과 힙한 장소를 좋아한다면 디제잉을 즐길 수 있는 클럽 Ho bar, 매주 월요일 디제잉을 하는 비스트로 더 반도 눈 여겨 볼만하다. ◇ 고요한 밤에 쏟아지는 불빛들 © News1 짙은 한여름 밤에 펼쳐지는 일루미네이션은 더위마저 잊게 만든다. 포레스트 판타지아는 홀로그램을 통한 가상현실 공간과 최첨단 멀티미디어를 이용한 일루미네이션 미디어 테마파크. 숲속을 유영하는 고래, 어린왕자에 나오는 바오밥 나무를 보면 동심으로 돌아가는 듯하다. 밤 12시까지 안덕면 제주조각공원에서 열린다. 장미빛축제로 알려진 애월의 제주불빛정원은 5만송이의 장미, 캐릭터 조형물과 LED 추억만들기 등으로 관람객들의 카메라를 붙잡는다. 밤 12시까지 운영한다. 유리의 성&amp;마법의 숲에서 열리는 별빛축제는 ‘한 여름밤 환상적인 빛의 멜로디를 거닐다’라는 테마로 밤 10시까지 운영된다. 라이트를 설치해 반짝반짝 빛나는 유리 조형물이 아름다운 유리박물관도 밤 10시까지 운영된다.◇ 중문관광단지, 夜(야)한 콘텐츠로 뜬다 © News1 밤에 뭐하고 놀지 특별한 계획이 없다면 중문으로 가보자. 중문에는 달빛을 받으며 걷고, 쇼핑하고, 카페에서 쉬고, 클럽까지 모든 즐거움이 가능하다. 달빛을 받으며 초원을 걷는 중문달빛걷기는 야간관광으로 떠오르는 핫 아이템이다. 일몰 30분 전부터 시작해 약 1시간 반 동안 약 3㎞의 골프 코스를 걸으며 마라도를 배경으로 노을감상, 풍등 날리기 등을 경험해볼 수 있다. 첫째 셋째 금요일에 진행되며 1688-5404로 예약하면 된다. 시원한 에어콘 속에 야간 쇼핑을 하고 싶다면 제주국제컨벤션센터 내 중문내국인면세점이 확실한 답이다. 8월 15일까지 야간에도 개장하며 밤 9시까지 쇼핑할 수 있다. 10~15% 할인 이벤트 및 품목별, 구매 금액별 다양한 할인 혜택과 사은행사가 마련된다. 제주에서 출발하는 국내선을 이용하는 내국인들은 면세 한도 600달러 선에서 이용할 수 있다. 중문 내국인면세점 근처에 위치한 라운지 바 바다다는 야외에 설치된 빈백 소파에 누워 밀려드는 푸른 파도를 감상할 수 있는 곳으로 새벽 1시까지 운영한다. 이국적인 분위기를 느끼며 밤새 놀고 싶다면 클럽 몽키비치로 가면 된다. 중문에 머무는 외국인들도 많이 오며 저녁 8시 30분부터 새벽 5시까지 영업한다. ◇ 어부들의 땀이 밤바다를 더욱 빛내는 제주의 야경 © News1 제주의 야경은 자연과 인공이 소박하게 어우러져있다. 화려한 네온싸인이나 초고층 건물들이 만들어내는 나이트 스카이라인은 없지만, 수수하고 담백한 불빛들이 제주를 감싸 안으며 아름다운 야경을 만들어낸다. 용연다리, 서부두 방파제는 야경이 아름다운 곳으로 꼽힌다. 검은 하늘과 해안가를 중심으로 펼쳐진 카페의 불빛들이 아름다운 용담해안도로, 무지개빛이 구름다리 밑으로 반사되는 용연다리는 공항근처에 있어 인기가 높다. 탑동광장을 조망할 수 있는 제주항 서부두 방파제는 해안도로를 따라 서있는 건물들의 불빛과 등대의 불빛이 바다와 어우러지는 광경이 아름답다. 휘청거리듯 가깝게 다가오는 한치잡이 배들의 불빛 뒤로 별빛처럼 쏟아지는 갈치잡이 배들의 불빛, 그리고 제주의 전경을 한눈에 내려다보는 야경 포인트도 있다. 제주과학고등학교에서 노루생이 삼거리 방향의 산록도로에서는 제주시의 야경을, 서귀포 자구리 공원에서는 서귀포의 야경을 조망할 수 있다. 서귀포의 야경 포인트 새연교도 빼놓을 수 없는 밤의 아름다움으로 마음을 즐겁게 해준다.◇ 한복 입고 여름밤 도심 미행 © News1 한복을 입고 제주의 옛 도심들을 구석구석 누비다가 엽전으로 시원한 수제 감귤 주스 한 잔 마시며 공연을 본 뒤 제주에서 가장 오래된 건물인 관덕정 앞에서 인생샷을 남겨보는 건 어떨까. 제주의 여름밤을 책임질 야간 관광 콘텐츠 ‘목관아가 살아있다’에서 이 모든 것이 가능하다.한복을 입고 제주 목관아와 원도심 골목골목을 누비며 도심 속 풍류를 느껴보는 ‘도심미행’, 목관아 내 연희각에서 열리는 국악, 클래식, 재즈 공연 ‘풍문으로 들었쇼(show)', 한복을 입고 엽전으로 물건을 계산하며 옛 정취에 취해보는 ’복작복장‘ 등 참신하고 재미있는 이벤트가 9월 15일까지 펼쳐진다. 이밖에도 한복과 관복을 입어보고 체험할 수 있는 이벤트, 아름다운 제주 목관아의 야경을 배경으로 인생샷을 남길 수 있는 인생포토존 등 이벤트들도 마련된다. 매주 토요일에 열리며 이벤트는 저녁 6시부터 9시30분까지 진행된다. 문의는 064-725-0905로 하면 된다. ◇ 가족들과 함께 가면 좋은 콘서트 © News1 제주의 아름다운 풍광 속에서 다양한 장르의 아티스트들이 어우러지는 피크닉 같은 가족 음악축제인 제주뮤직페스티벌(JMF)은 재일 제주인 2세 뮤지션 양방언이 총감독을 맡은 음악축제. 올해는 엘리시안 리조트 야외 특설무대에서 25일과 26일 양일에 걸쳐 진행된다. 25일에는 국카스텐, 데파페페, 에일리 등이, 26일에는 양방언, 전인권밴드, 바버렛츠, 십센치 등이 공연을 펼친다. 자세한 사항은 홈페이지(http://www.jejumusicfestival.com)에서 볼 수 있다.8월 9일부터 13일까지 5일간 표선 해수욕장에서 열리는 서귀포 야해페스티벌에서는 사우스카니발, 씨잼 등의 공연과 디제잉 쇼, 인디락 공연 등이 펼쳐진다. 저녁 7시 반부터 10시까지 열린다. ‘한 여름밤의 꿈’을 테마로 하는 새연교 시민콘서트는 첫째, 셋째주 토요일 저녁 7시에 새연교 야외 특설무대에서 열린다. ◇ 제주의 별은 더 청연하게 빛난다 © News1 대도시에 비해 인공빛이 적고 대기가 맑은 제주는 별을 관측하기에 좋은 곳이다. 공항에서 가까운 별빛누리공원은 제주 시내에서 별을 볼 수 있는 별자리 관측 명소다. 3층으로 된 건물에 천체투영실과 입체영상관, 관측실이 있어 다양하게 별을 볼 수 있다. 하절기에는 오후 3시부터 11시까지 운영한다. 제주 남쪽지역에서 별을 관측하기 좋은 서귀포천문과학문화관은 밤하늘의 천체 및 태양을 관찰할 수 있는 400m 천체 망원경과 다른 망원경 6대가 있어 별을 관측할 수 있다. 오후 2시부터 밤 10시까지 운영한다. 자연 속에서 별을 관측해보고 싶다면 새별오름도 좋다. 저녁 하늘 샛별이 아름다워 붙여진 이름인 만큼 이곳에서 관측하는 별은 더 아름답게 다가온다. 오름이 도심의 불빛을 막아 남서쪽 하늘을 관측하기에 좋다고 한다. ◇ 바다와 계곡에서 몸보신 해봤니 © News1 땀을 많이 흘려 에너지를 보충해야할 때 한국인이 가장 많이 찾는 닭요리. 닭 한 마리를 푹 삶아 내놓는 닭백숙은 맛이 좋고 필수 아미노산이 풍부하며 항균작용을 하는 마늘, 비타민 C가 많은 대추가 있어 영양가가 많은 음식이다. 복날에 삼계탕을 먹기도 하지만, 제주에서는 음력 6월 20일(올해 8월 11일)에 닭을 잡아먹는 풍습이 있다. 용담동 한두기는 백숙으로 유명한 곳으로 대부분 음식점은 밤 11시~12시까지 영업한다. 이호테우해수욕장 앞 포장마차촌에도 백숙요리집이 많은데 새벽을 넘겨 영업을 하는 곳도 있다. 이밖에 한 여름에도 시원함을 느낄 수 있는 돈내코와 강정천, 차가운 물에 발을 담그고 먹을 수 있는 속골 등에서 백숙을 즐길 수 있다. 용담레포츠공원은 제주도민들이 많이 찾는 여름밤 스팟. 바비큐를 원한다면 이곳이 제격이다. 캠핑장은 취사가 허용되어있고 불판과 가스레인지 등을 대여해주므로 직접 고기를 사다가 구워먹는 사람들이 많다. 농구장과 놀이터가 있어 어른 아이 모두 즐길 수 있다. ◇ 제주의 물로 만든 수제 맥주 © News1 맥주의 맛은 물이 결정하기에 깨끗한 청정 제주의 물로 만든 맥주의 맛은 시작부터 다르다. 게다가 장인정신을 담아 만든 크래프트 비어를 좋아하는 사람이라면, 반드시 제주에서 만든 맥주를 맛봐야 한다. 제주를 대표하는 수제 맥주인 제스피는 제주산 천연보리와 천연화산암반수로 만든다. 연동의 JESPI에서는 라거, 페일에일 등 5가지 종류의 맥주를 판매한다. 서울 이태원의 작은 펍에서 맥주를 판매하다 제주에 양조장을 차린 맥파이는 제주에서도 핫플레이스로 떠올랐다. 탑동 맥파이, 연동 드렁큰홀스, 제주중문수제맥주 등 펍에서 마셔볼 수 있다. 작지만 알찬 양조장을 가진 제주지앵은 감귤맥주가 대표맥주로 베스트웨스턴 호텔에 있는 탭하우스더코너에서 맛볼 수 있다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도로 관광왔다가 말다툼 끝에 모친 찌른 중국인 중형 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도로 관광왔다가 말다툼 끝에 모친 찌른 중국인 중형 서대천 세계청소년문화육성협회 이사장, 국회에서 ‘글로벌리더 양성 위해 청소년 영어학술논문 발표대회’ 개최 인바이츠지노믹스, 제주대학교병원과 '제주 지놈프로젝트' 공동연구 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 검색버튼 제주도로 관광왔다가 말다툼 끝에 모친 찌른 중국인 중형 기사승인 2017. 07. 27. 18:09 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주도에 관광왔다가 어머니를 흉기로 찌른 중국인에게 중형이 선고됐다.제주지법 형사2부(제갈창 부장판사)는 존속살해미수 혐의로 재판에 넘겨진 중국인 리모씨(29)에게 징역 4년을 선고했다고 27일 밝혔다.재판부에 따르면 리씨는 지난해 12월 29일 오후 11시53분께 제주시의 한 호텔에서 관광을 위해 함께 입국한 모친 웨이모씨(53)와 말다툼 끝에 탁자 위의 드라이버로 웨이씨의 목 등을 수차례 찔렀다.재판 과정에서 리씨는 “편집형 조현병을 앓고 있어 범행 당시 심신상실의 상태에 있었다”고 주장했지만 재판부는 “사물을 변별할 능력이나 의사를 결정할 능력을 상실한 상태에까지 이르러 있었다고는 보기 어렵다”며 리씨의 주장을 받아들이지 않았다. 재판부는 “죄질이 좋지 않아 엄하게 처벌할 필요가 있다”면서도 “다만 모친의 피해 정도가 심하지 않고, 처벌을 원치 않는 점을 참작했다”고 양형 이유를 밝혔다. 신종명 기자 skc113@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 1000만원 짜리 골프 원숭이 NFT ‘오픈런 대란’ 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 4 정동원x박지원, 훈훈한 케미…“‘러브 액츄얼리’로 만나.. 5 배우 선우은숙, 아나운서 유영재와 결혼 “최근 혼인신고”.. 6 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 석부작 박물관과 녹색관광지 만들기 '맞손' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 석부작 박물관과 녹색관광지 만들기 '맞손' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 석부작 박물관과 녹색관광지 만들기 '맞손' 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.07.27 15:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 석부작 박물관과 그린카드 혜택 확대를 통해 녹색관광지 만들기 협약을 체결했다고 27일 밝혔다.이번 협약은 녹색소비 확산과 그린카드 발급 확대를 위해 제주도내 사설관광지로는 김녕미로공원 이후 두 번째 체결됐다.양 기관은 녹색관광지 현판 전달을 진행하고 녹색 소비 확산을 통해 지속가능한 사회를 만들기로 했다.이날 협약을 통해 석부작 박물관은 그린카드를 제시하는 방문객을 대상으로 입장요금 할인 혜택을 적용하며, 기관별 녹색관광지 만들기 사업과 그린카드 발급 확대를 위해 공동으로 노력키로 했다.협약에 따라 28일부터 석부작 박물관 방문객이 그린카드를 제시하면 성인 기준 일반 입장요금이 6000원에서 50% 할인된 3000원에 입장 가능하다.단, 별도 할인 혜택이 제공되는 단체, 청소년, 어린이, 노인, 군인 등은 제외된다.김양보 환경보전국장은 "녹색관광지 만들기에 참여하는 사설관광지에 대한 홍보 등 지원방안 마련에 힘쓰고 앞으로도 각 협약기관과 공동으로 녹색관광지 만들기 사업을 확대해 도민, 관광객의 혜택 범위를 넓히고 친환경 생활 확산을 이끌 수 있도록 노력할 것"이라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>이효리 “방송 이후 제주도 집에 아침·저녁으로 관광객 찾아와” - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 이효리 "방송 이후 제주도 집에 아침·저녁으로 관광객 찾아와" JTBC '효리네 민박'에 출연하고 있는 이효리가 제주도 집 공개 이후 많은 관광객들이 찾고 있다고 고충을 토로했다. 권순걸 기자 2017-07-17 11:15:08 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 연합뉴스[인사이트] 권순걸 기자 = 이효리가 제주도 집을 찾아오는 관광객이 늘어난 것에 불편함을 토로했다.17일 패션 매거진 코스모폴리탄은 8월호 커버를 장식한 이효리의 화보를 공개했다. 화보 속 이효리는 뜨거운 태양이 작렬하는 미국 캘리포니아 사막에서 드레드 헤어로 파격적인 모습을 보이고 있다. 최근 JTBC '효리네 민박'을 통해 4년여 만에 방송 활동을 재개한 이효리의 색다른 모습이 눈길을 사로잡았다. JTBC '효리네민박'이효리는 화보 인터뷰에서 "'효리네 민박' 출연 이후 후폭풍이 밀려오고 있다"라며 "아침부터 밤까지 사람들이 집 앞으로 찾아오고 있다"라고 하소연(?)했다. 그러면서도 "하지만 프로그램 출연을 우리가 했으니 뒷감당도 알아서 해야 할 것"이라며 의연한 태도를 보였다. 이효리-이상순 부부가 생활하는 집을 민박집으로 꾸며 여행객들을 맞이하는 콘셉트의 방송 탓에 이효리의 제주도 집은 대중에 공개됐다. 이전부터 이효리는 관광객들의 방문에 불편함을 토로해왔지만 방송 이후 더 많은 관광객이 찾는 것으로 보인다. 이효리는 자신의 새 앨범의 영감을 어디서 받았냐는 질문에는 "하나를 콕 짚어 말하긴 어렵다"라며 "끊임없이 뭔가를 하는 성격인데 제주도에 와서 고민을 내려놓으니 제 안에 있던 단어들이나 멜로디가 자연스럽게 떠올랐다"라고 답했다.한편 이효리의 화보는 코스모폴리탄 8월호와 코스모폴리탄 공식 홈페이지에서 만나볼 수 있다.이효리 "대중목욕탕 아줌마들 참견에 욱할뻔 했다" (영상)가수 이효리가 대중목욕탕 아주머니들의 텃세에 화를 내려다가 참은 일화를 공개했다. 권순걸 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>지역주민 “제주도, 오라관광단지 개발사업 절차 신속 이행” 촉구 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 지역주민 “제주도, 오라관광단지 개발사업 절차 신속 이행” 촉구 등록 2017.07.13 11:00:47 작게 크게 【제주=뉴시스】조수진 기자 = 오라·오등동 발전협의회가 13일 오전 제주도의회 도민의 방에서 기자회견을 열고 제주도를 상대로 오라관광단지 개발사업 절차를 법과 원칙에 따라 신속히 이행할 것을 촉구하고 있다. 2017.07.13. susie@newsis.com 【제주=뉴시스】조수진 기자 = 오라·오등동 발전협의회(회장 박연호)가 13일 제주특별자치도를 상대로 오라관광단지 개발사업을 신속히 진행할 것을 촉구했다. 협의회는 이날 오전 제주도의회 도민의 방에서 기자회견을 열어 “제주도와 도의회는 1만명의 일자리 창출과 5조2000억원 규모의 외자 유치가 걸려 있는 사업을 지방선거를 의식해 서로에게 공 떠넘기기로 일관하고 있다”고 지적했다. 이들은 “사업자가 오라관광단지 개발사업을 한 번 더 포기 결정을 하게 되면 우리 지역 주민들은 현 도정에서든 차기 도정에서든 강력한 투쟁 선봉에 서게 될 것”이라고 강조했다. 이어 “집행부 및 집행부의 수장인 지사가 과연 법과 규칙에 맞는 행보를 하고 있는지 묻고 싶다”며 “법적 근거의 당위성조차 확보되지 않은 자본검증 위원회를 어떤 명분으로 이끌어가고자 하는지 궁금할 따름”이라고 목소리를 높였다. 협의회는 “국제자유도시를 천명한 제주도에 글로벌 자금이 들어오는 건 당연한 일”이라며 “법과 원칙에 의한 사업 진행절차를 기대한다”고 촉구했다. 제주 오라관광단지 조성사업은 제주 지역 사상 최대 규모의 개발 사업으로 제이씨씨(JCC)가 오는 2021년까지 6조2800여억원을 투입해 제주시 오라2동 산46-2번지 일대의 357만5753㎡에 이르는 부지에 관광숙박시설 및 상업시설 등을 조성하는 사업이다. 제주 사회에서는 오라관광단지 조성사업과 관련해 투기자본 의혹, 오름 절취 등 환경 훼손, 오·폐수 처리, 하류 지역 범람 피해 등 다양한 사안을 둘러싸고 지역 주민들과 시민사회단체 간 갈등이 심화되고 있다. 이에 제주도의회는 지난 4월과 5월에 열린 임시회에서 오라관광단지 환경영향평가서 동의안을 상정했다가 두 번 모두 ‘심사보류’ 결정을 내렸다. 이어 원희룡 제주도지사를 상대로 ‘자본검증위원회(가칭)’를 구성할 것을 요청했으며 도는 지난 6월13일 이를 받아들여 사업 자본을 철저히 검증하겠다고 발표한 바 있다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 관광마케팅단, 중동까지 관광시장 다변화 '온힘' &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광마케팅단, 중동까지 관광시장 다변화 '온힘' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도 관광마케팅단, 중동까지 관광시장 다변화 '온힘' 기자명 고병수 기자 입력 2017.07.17 10:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 카자흐스탄, 아랍에미리트 시장공략 (제주=국제뉴스) 고병수 기자 = 제주도는 전성태 행정부지사를 단장으로 하는 제주 관광 마케팅단이 17일부터 22일까지 카자흐스탄과 아랍에미리트를 방문해 제주 관광설명회를 개최하는 등 제주관광시장 다변화에 온힘을 기울이고 있다고 밝혔다.제주 관광 마케팅단은 17일 한국관광공사 카자흐스탄 알마티 해외사무소를 방문해 중앙아시아 대상 제주관광 공동 마케팅 방안을 협의하고 카자흐스탄 여행업계와 구체적인 활성화 방안을 논의할 예정이다.18일부터 19일에는 카자흐스탄 아스타나로 이동해 ‘2017 아스타나 엑스포’ 한국의 날 공식행사에 참가해 제주의 ‘탄소 없는 섬, 카본 프리 아일랜드’ 정책과 함께 한국관을 찾은 현지인들 대상으로 제주관광 홍보 활동을 전개할 예정이다.20일에는 지방자치단체로는 처음으로 아랍에미리트 두바이에서 단독으로 언론과 여행사, 의료기관 관계자들을 대상으로 제주관광 설명회를 개최한다. 이 자리에서 道와 제주관광공사는 한국관광공사 두바이지사와 함께 제주의 우수한 자연환경과 접목한 제주형 토털 헬스 케어 시스템 등 우수한 의료 서비스를 소개하게 된다.  관계자는 "이번 두 국가의 방문은 그 동안 특정 국가에 편중됐던 제주 관광시장 개편을 위한 노력의 일환"이라며 "앞으로도 글로벌 관광마케팅 활동을 더욱 확대해 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 500억원 융자 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 하반기 관광진흥기금 500억원 융자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 하반기 관광진흥기금 500억원 융자 기자명 이승록 기자					(leerevol@naver.com) 입력 2017.07.17 10:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 2017년 하반기 제주관광진흥기금 융자지원 계획을 17일 도청 홈페이지를 통해 공고하고, 28일까지 열흘간 융자지원 신청을 접수받을 계획이라고 17일 밝혔다. 하반기 융자지원은 총 500억 규모이며 세부적으로는 △관광이용시설업 및 관광편의시설업 등의 건설자금 200억원, △숙박업 및 관광시설 등의 개보수자금 100억원, △관광사업체 경영안정자금(노후 전세버스 교체지원 포함) 200억원이며, 최종 선정규모는 융자신청 상황에 따라 기금심의회 심의를 거쳐 조정이 된다.특히 이번 융자지원부터 '관광면세업'에 대해서도 경영안정자금이 융자된다. 관세법 제196조에 따른 보세판매장 및 외래관광객 등에 대한 부가가치세 및 개별소비세 특례규정 제5조에 따른 외래관광객 면세판매장 중 제주특별자치도관광진흥조례에 따른 관광편의시설업으로 별도 지정받은 경우 융자신청이 가능하며, 경영안정자금에 1억원 한도로 융자할 수 있다.융자자 대출금리는 기획재정부에서 분기별로 공지하는 공공자금관리기금 융자계정 대출금리(공자금리)에서 0.75% 우대 변동금리(3사분기 기준 1.12%)를 적용하며, 상환기간은 △(건설․개보수)2년거치 3년상환, △(경영안정자금) 1년거치 3년상환, △(전세버스 교체)2년거치 3년상환 등이다.접수처는 제주도 관광정책과(710-3344), 행정시 관광진흥과, 도 관광협회 등이며, 대상자 선정 결과는 8월18일 공고하여 개별 우편통지할 예정이다.제주도는 사드로 인한 지역 관광사업체의 어려운 상황을 감안해 지난 3월 특별융자(230개소, 307억원)와 더불어 융자금 원금상황 유예 지원(291건, 2280억원)을 결정한 바 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지 개발사업 자본검증은 도민의 뜻" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 "오라관광단지 개발사업 자본검증은 도민의 뜻" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 "오라관광단지 개발사업 자본검증은 도민의 뜻" 송고시간2017-07-05 15:38 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 전 개발사업자의 문제제기에 반박 입장 전 개발사업자의 문제제기에 반박 입장 (제주=연합뉴스) 변지철 기자 = 제주도가 5일 오라관광단지 개발사업의 자본검증은 사업자에 대한 도민사회의 의문과 우려를 해소하기 위한 것으로, 만전을 기하겠다는 기존 입장을 재확인했다. "오라관광단지 개발사업 행정절차는" (제주=연합뉴스) 변지철 기자 = 5일 이승찬 제주도 관광국장이 제주도청 기자실에서 오라관광단지 개발사업 행정절차에 대한 제주도의 공식입장을 밝히고 있다. 2017.7.5 전날 자본검증을 시행하겠다는 행정의 방침에 "온갖 불법적 절차와 탈법으로 인허가가 지연됐다"며 강한 불만을 제기한 박영조 전 제이씨씨(JCC) 회장의 기자회견에 대해 공식입장을 낸 것이다. 광고 이승찬 제주도 관광국장은 이날 도청 기자실에서 "오라관광단지 개발사업은 유사 이래 제주에 최대 규모의 자본이 투자되는 사업으로, 자본의 실체와 조달가능 여부에 대해 도민사회로부터 검증의 필요성이 여러 차례 제기됐다"며 "도민사회의 의문과 우려를 해소하고 도의회의 깊이 있는 심의 또한 필요하다고 판단돼 그 시기를 앞당겨 자본검증을 먼저 시행하기로 했다"고 설명했다. 도는 도의회의 환경영향평가 동의한 처리 후 사업승인 신청서가 제출되면 엄격하고 철저한 자본검증을 하겠다는 입장을 견지했지만, 지난달 13일 도의회로부터 자본검증을 먼저 해달라는 공식적인 요청이 들어오자 기존 입장을 바꿨다. 이 국장은 자본검증이란 용어 자체가 법적으로 명시돼 있지 않다고 인정하면서도 "각종 개발사업에 대해 사전 절차가 이행된 후 사업자로부터 사업승인 신청서가 제출되면 그에 따른 투자계획과 자본조달계획 등을 확인하고 있다"며 "이는 곧 자본검증이라 할 수 있다"고 설명했다. 도는 이와 같은 문제가 재연되지 않도록 앞으로 제주도에서 일정 규모 이상의 개발사업에 대해 행정절차 추진 초기 단계에서 자본검증을 할 근거 마련을 위한 조례 개정을 준비하고 있다. 호소문 전달하는 박영조 전 JCC 회장 (제주=연합뉴스) 변지철 기자 = 난개발과 특혜 논란이 일고 있는 오라관광단지 개발사업의 전 사업자인 박영조 전 JCC 회장이 4일 제주도의회 도민의 방에서 기자회견을 한 뒤 '편법/탈법 행정으로 희생양이 된 제주오라관광단지 호소문'을 제주도청 원희룡 제주지사 비서에게 전달하고 있다. 2017.7.4 bjc@yna.co.kr 이 국장은 "오라관광단지 개발사업에 대한 자본검증을 계기로 각종 개발사업에 투자되는 중국 자본은 물론 전반적인 국내외 자본에 대한 깊이 있는 검증을 통해 사업승인 후 사업추진이 중단되거나 속칭 '먹튀' 사례가 발생하는 일이 없도록 하겠다"고 밝혔다. 자본검증의 주요 검증 내용은 자본의 실체와 적격성, 자본 조달 능력이다. 사업자가 제시한 내용의 사실 여부와 막대한 사업비의 연도별 투자계획, 이행 가능성 등도 철저히 살펴볼 방침이다. 자본검증은 금융·법률·회계·경제 등 여러 분야의 전문가로 자본검증위원회를 구성해 시행한다. 필요하면 현지 조사와 국제적으로 인정받는 신용평가기관 등도 활용한다. 도는 검증위가 필요한 자료 목록과 검증 기준·방법·규모·시기 등을 정해 검증을 마치고 최종 결과를 내놓으면 도의회에 제출할 계획이다. 한편 최근 JCC 대표이사직과 회장직에서 물러난 박 전 회장은 5일 기자회견을 열어 "제주도 투자제도에는 한 줄도 없는 온갖 불법적 절차와 탈법으로 인허가는 지연됐고 사업은 예측하기 어려운 상태로 미궁에 빠졌다"며 강한 불만을 표현했다. 그는 기자회견 뒤 제주도청 원희룡 도지사 집무실을 찾아가 '편법/탈법 행정으로 희생양이 된 제주오라관광단지 호소문'을 비서에게 전달했다. 2021년까지 5조 원대의 사업비를 들여 제주 최대 규모의 복합리조트를 건설하는 오라관광단지 개발사업은 제주 지역사회에서 끊임없이 논란의 대상이 돼왔다. 사업추진 과정에서 환경·경관 훼손·자본검증 등 각종 논란과 절차 이행 과정에서의 잡음이 일고 있으며 지역사회에서도 의견이 엇갈려 찬반 주장이 팽팽하게 맞서고 있다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/07/05 15:38 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지의 흑돼지 맛집 ‘돈가득’, 여름철 보양식으로 인기 만점. &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 서귀포 중문관광단지의 흑돼지 맛집 ‘돈가득’, 여름철 보양식으로 인기 만점. 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.07.21 19:13 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 환상의 섬 제주도는 여름 휴양지로 손색이 없는 우리나라의 대표적인 여행지이다.볼거리 많은 제주도에서 특히 중문관광단지는 아름다운 제주의 경치와 테마박물관, 맛집 등 다양하게 즐기고 관람할 수 있는 요소들이 많아 제주 여행의 필수코스와 같은 곳이다.  희귀 상록수와 식물을 관찰할 수 있는 난대림 지대와 3단으로 웅장하게 떨어지는 물줄기가 인상적인 ‘천제연 폭포’와 자연이 만들어낸 거대하고 신비스러운 ‘대포동 지삿개 주상절리’, 유난히 파랗고 아름다운 반달모양의 ‘색달해변’을 따라 걷다보면 그동안 쌓인 스트레스가 해소될 뿐 아니라 오랫동안 기억될만한 좋은 추억이 될 것이다.푸른 바다와 하늘아래에서 여유를 만끽한 후 먹는 제주의 음식은 자연경관만큼이나 황홀할 텐데, 제주도에서 먹는 여름 보양식에는 무엇이 있을까.제주에는 특색 있는 음식들이 많지만 초복을 지나 중복을 앞두고 있는 지금 여름 보양식으로 제주 흑돼지만한 것이 또 없다.중문동 2025-1에 위치한 흑돼지 전문점 ‘돈가득’은 복분자를 뿌린 흑돼지로 유명한 곳이다.두툼한 두께의 제주도산 흑돼지를 국내산 참숯에 굽는데, 굽기 직전 복분자를 뿌려 고기의 잡내를 없앤다. 복분자를 미리 뿌려두면 고기가 흐물흐물 해지기 때문에 굽기 직전 뿌려주는 것이 포인트. 바늘이 가면 실이 가듯 흑돼지에 빠질 수 없는 것이 바로 멜젓이다. 하지만 ‘돈가득’은 멜젓과 함께 먹기도 하고 이곳만의 ‘특제양파절임’과 함께 먹는다.멜젓과는 또 다른 매력의 새로운 맛으로 좋은 평을 얻고 있는데 일반적으로 고기와 함께 먹는 양파와 간장이 들어간 소스가 아니라, 양파와 식초 고춧가루를 조합해 상큼하면서도 깔끔한 맛을 완성했다. 무엇보다 잘 구워진 흑돼지와 환상의 궁합이라고.‘돈가득’은 최근 복분자 흑돼지로 MBC에브리원 ‘맛있을 지도’에도 소개된 바 있다. MC 김경식과 사유리, 게스트까지 모두의 입맛을 사로잡으며 좋은 반응을 얻었다는 후문이다.참숯 향을 가득 머금은 두툼한 흑돼지를 앙파절임과 함께 먹는 ‘돈가득’에서 복분자 흑돼지 한상이면 더운 여름철 어떤 보양식도 부럽지 않을 것이다. 예약 및 문의 가능. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광교육종합계획 추진 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광교육종합계획 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 관광교육종합계획 추진 기자명 김지석 기자 입력 2017.07.17 15:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 도민을 대상으로 관광서비스 의식함양 및 도민의 관광친절 수용태세 확립을 위한 관광교육종합계획을 수립할 계획이라고 17일 밝혔다.관광교육종합계획 주요내용을 보면 △관광교육의 추진목표 및 기본방향 △2018년 범도민 관광친절수용태세 확립 방안 △관광교육 참여촉진 및 지원 등 활성화 방안 △관광교육 활성화를 위한 인프라 및 환경조성 방안 △관광교육 전문 인력의 확보 및 육성방안 △관광교육 이수에 따른 종합적인 관리시스템 구축방안 △관광교육 활성화를 위한 재원조달방안 △그 밖에 관광교육의 활성화에 필요한 사항 등이다.또 관광교육에 대한 종합적인 교육 여건과 실태를 분석하고 관광교육 인프라 조사, 관광교육 이수에 따른 종합적인 관리시스템 구축방안과 국내·외 관광환경 변화에 대한 능동적 대응 방안 등도 함께 마련해 나갈 계획이다.이와 함께 도는 17일 관광교육종합계획수립 용역 계약을 체결하고 워킹그룹과 용역 팀의 논의 등을 거쳐 오는 11월 중순까지 마무리 할 예정이다. 김지석 기자 kjs@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 오설록 맛집 ‘알동네집’, 제주 흑돼지 ‘자투리고기’로 관광객 입맛 사로잡아 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.22 (금) 구름많음동두천 28.8℃ 구름많음강릉 26.2℃ 구름많음서울 27.0℃ 흐림대전 29.2℃ 구름많음대구 27.9℃ 구름많음울산 23.3℃ 구름조금광주 29.1℃ 맑음부산 25.4℃ 구름조금고창 27.9℃ 맑음제주 29.9℃ 구름많음강화 26.2℃ 흐림보은 26.5℃ 구름많음금산 27.4℃ 흐림강진군 27.8℃ 흐림경주시 23.6℃ 구름많음거제 27.6℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 오설록 맛집 ‘알동네집’, 제주 흑돼지 ‘자투리고기’로 관광객 입맛 사로잡아 강유라 기자 news@pcss.co.kr 등록 2017.07.21 16:52:13 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 여름 휴가철이 본격적으로 시작된 가운데 제주도를 방문하는 관광객들의 수가 급증하고 있다. 제주도는 천혜의 자연경관과 다양한 명소, 관광지가 즐비한 곳으로 많은 사람들이 다녀가는 관광지다. 수많은 제주의 관광지 중, 최근 알려지고 있는 관광지인 ‘오설록’은 국내 화장품 업체인 아모레퍼시픽의 녹차브랜드 이름으로 아모레퍼시픽이 제주도 서귀포시 일대에 조성한 녹차밭, 차 박물관, 녹차공장을 통칭하는 말이다. 요즘 젊은 층들은 물론 다양한 연령층에서 ‘건강한 삶’과 ‘웰빙’이 중요 키워드로 떠오르면서, 녹차를 비롯한 다양한 제주의 품질 좋은 차들을 만나볼 수 있는 ‘오설록’이 제주여행의 필수코스처럼 여겨지고 있다. 한편, ‘오설록’과 차로 5분 거리에 가까이 위치한 제주 오설록 맛집 ‘알동네집’으로 관광객들에게 주목받고 있다. ‘알동네집’은 ‘유리의 성’, ‘소인국 테마파크’의 제주도 관광명소 인근에 위치해 있어 관광을 마친 관광객들과 제주도 현지 주민들이 많이 찾고 있다. ‘오설록’ 맛집 ‘알동네집’의 주력 메뉴인 자투리고기는 다른 지역에서 쉽게 맛볼 수 없는 제주도 지역 음식이다. 자투리고기란, 돼지고기를 부위별로 해체하고 남은 고기를 일컫는 말로 뒷고기, 잡고기라고도 불린다. 자투리고기라는 이름 때문에 다른 부위의 돼지고기보다 맛이 떨어는 것 아니냐는 오해를 사곤 한다. 하지만 먹어본 사람들이나 제주도민 사이에서는 ‘너무 맛있어서 따로 빼놓는 부위’라고 말한다. 외관은 삼겹살과 비슷하지만 적당한 살코기와 비계의 조화가 훌륭해 감칠맛과 식감이 뛰어나다. ‘알동네집’은 자투리고기 외에도 돌솥밥과 된장찌개, 김치찌개 메뉴가 웬만한 전문점보다 맛이 뛰어나다고 평가받는 제주도 오설록 맛집이다. 또한 ‘알동네집’은 이러한 명성답게 페이스북과 인스타그램에서 유명한 맛집으로 최근, 제주 MBC방송에 취재된 바 있다. 각종 밑반찬과 메뉴에 들어가는 모든 식재료는 100% 국내산을 사용해 믿고 먹을 수 있으며, 특히 채소류는 ‘알동네집’에서 직접 재배한 채소를 사용해 더욱 싱싱하게 먹을 수 있다. 제주도 오설록 맛집 ‘알동네집’의 강동혁 사장은 “제주도가 아니면 맛보기 힘든 자투리 고기를 저희 ‘알동네집’에서 마음껏 즐기시고 제주도 여행의 즐거운 추억을 남기시길 바란다”고 전했다. 강유라 기자 의 전체기사 보기 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정치 여야 원구성 합의, 본회의 개회...국회 재가동 속도 권성동 직무대행 체제‧조기 전당대회 개최 놓고 안철수-김기현 이견 [한국갤럽] 향후 1년 집값 ‘하락할 것60%-상승할 것18%’ 하락전망 10년 내 최고치 尹대통령 MB사면 반대여론 질문에 “미래지향적으로 가면서 국민정서도 감안” 진중권, 권성동 교섭단체 발표연설에 “술 취했나” 수위 높은 비판 ‘권성동 사촌업체 일감 몰아주기 특혜’ 보도에 與 “사실무근…1억 손배 청구” 많이 본 기사 1[폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” 2진중권, 권성동 교섭단체 발표연설에 “술 취했나” 수위 높은 비판 3YPT테니스 봉사팀 경기도 하남시 장애인들과 테니스 소통 4[폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” 5[폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” 6다주택자 세부담 낮아진다…종부세 중과제도 폐지키로 이슈 더보기 [폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리뉴스 한유성 기자] &lt;폴리뉴스&gt;와 월간 &lt;폴리피플&gt;은 7월 19일 “윤석열 정부 첫 해, 경제 위기 속에 총체적 난국이 우려된다”는 주제로 정국좌담회를 가졌다. 이날 좌담회에는 홍형식 한길리서치 소장, 차재원 부산 가톨릭대학교 특임교수, 황장수 미래경영연구소장, 그리고 본지 김능구 폴리뉴스 대표가 참석했다. 좌담회 첫 번째 주제는 취임 두 달이 지나며 30%대 초반까지 곤두박질친 윤석열 대통령의 지지율, 그 원인과 극복 방안을 다뤘다. 김능구 : 취임 두 달, 대통령 지지율이 30%대에 턱걸이를 한 수준이다. 혹자는 20%까지 내려갈 수도 있다고 하는데, 윤 대통령한테 ‘반전의 기회는 있을 것인가’를 살펴보겠다. 먼저 여론조사 수치를 가지고 홍 소장님이 간단하게 짚어주기 바란다. 홍형식 : 대통령 지지율만 놓고 보면, 전화면접이나 ARS 상관없이 많은 조사기관들의 발표에 거의 일관된 수치가 나오고 있다. 달리 이야기하면 거의 모든 국민들이 부정적으로 평가하고 있다는 것을 방증하는 현상이다. 불과 얼마 전에 지지율이 역전됐다는 이야기가 나왔는데, 한발 더 나아가 40% 이하로 떨어졌다는 보도가 나오고 얼마 안 돼서 이제 30%대 초반 [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [노회찬 4주기에 부쳐] 정치자금법① ‘오세훈법’을 넘어 ‘노회찬법’으로 인터뷰 더보기 [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [폴리뉴스 강경우PD] 기후 위기 대응은 에너지 전환이 핵심이다. 탄소 중립을 위한 국제적 공조 속에 화석연료의 감축과 재생에너지의 비중을 늘려가는 에너지 믹스의 재구성 과정이 관건이지만, 구체적인 대응전략과 로드맵은 각 국의 상황에 따라 큰 차이를 보이고 있다. 미래 경제와도 떼놓고 생각할 수 없는 이슈인데, 폴리뉴스 김능구 대표는 7월 스페셜인터뷰로 홍종호 서울대 환경대학원 교수님을 모시고 우리나라의 현 주소와 바람직한 대응 방향에 대해 들어봤다. [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [스페셜 인터뷰] 홍종호 서울대 환경대학원 교수 “원전, 재생에너지 확대 과정의 보완 발전원으로 봐야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 18년째 '독도 영유권' 억지 주장한 日, "한일안보협력 중요" 강조 일본 정부가 올해 발간한 '방위백서'를 통해 독도 영유권 억지 주장을 18년째 되풀이하면서도 한일 안보 협력의 중요성을 추가로 언급했다. 일본 정부는 방위백서에서 북한, 중국, 러시아 등 주변국으로부터 안보 위협을 적시하며 방위력 강화 필요성을 강조하면서 '반격 능력'(적 기지 공격 능력)을 처음 언급했다. 일본 정부는 22일 기시다 후미오 총리 주재로 열린 각의(국무회의)에서 2022년 판 방위백서 '일본의 방위'를 채택했다. 일본은 올해 백서에서 자국 주변의 안보 환경을 설명하면서 "우리나라(일본) 고유 영토인 북방영토(쿠릴 4개 섬의 일본식 표현)와 다케시마(竹島·일본이 주장하는 독도의 명칭) 영토 문제가 여전히 미해결 상태로 존재한다"고 기술했다. 2005년 이후 18년째 억지 주장을 반복하고 있다. 작년에 이어 올해 방위백서에도 게재된 '우리나라 주변의 안전보장 환경'이라는 제목의 지도상 독도 위치에 '다케시마 영토 문제'라고 기술했고, 자위대 주요 부대의 위치를 표시한 지도에도 독도를 다케시마로 표기한 가운데,올해 방위백서는 한일 안보 협력과 관련한 부분에서 "한일 양국을 둘러싼 안전보장 환경의 엄중함과 복잡함이 더해가는 가운데 한일 협력은 점점 검찰, 은수미 전 성남시장 징역 5년 구형…은 "부정청탁·뇌물 받지 않아" 국민연금 53만원 받을 때 공무원연금 248만원…공적연금 간 격차 줄이려면 바이든, 코로나19 양성…"가벼운 증상으로 외부 일정 취소, 격리 상태서 업무 계속" 전국경찰서장 회의 제안 총경 "경찰국 절대 안돼 대응책 논의"…내일 오후 개최 예정 폴리TV 더보기 [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][김능구와 이강윤의 여론조사 대해부 7월③] “창조적 파괴 수준의 민주당 혁신, 전대가 배출할 새 리더십의 미션” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 22일 17시 50분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 절물자연휴양림 탐방 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 등반동호회, 절물자연휴양림 탐방 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회 등반동호회, 절물자연휴양림 탐방 기자명 고병수 기자 입력 2017.07.16 17:35 수정 2017.07.16 17:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회 등반동호회는 15일  도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 40여명과 함께 절물자연휴양림 탐방하는 등반동호회 행사를 실시했다.이번 행사는 제주도 대표 휴양림인 절물오름자연휴양림 탐방을 통해 여름철 관광상품 개발 및 도내 관광업종 간 상호 네트워크를 구축하는 자리로 마련했다. 관계자는 "앞으로도 제주특별자치도관광협회 등반동호회는 도내 관광자원 현장체험을 통해 제주관광의 여름을 시원하게 보내도록 계절별 관광개발‧촉진하고 관광으로 만들어가는 희망찬 제주를 만들기 위해 적극 앞장서 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이승찬 제주도 관광국장 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 정치 정치최신 대통령실 국회/정당 국방/외교 북한 행정 지방정가 국정감사 이승찬 제주도 관광국장 등록 2017.07.05 15:25:43 작게 크게 【제주=뉴시스】조수진 기자 = 이승찬 제주특별자치도 관광국장이 5일 오후 도청 기자실에서 오라관광단지 개발사업 행정절차에 관한 입장을 밝히고 있다. 2017.07.05. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3[속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4[속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 6尹, 이재명 '친일'공세에 "北핵 위협 앞에 어떤 우려가 정당화될 수 있나" 7[단독]엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 관광명소·버스에 ‘공공 와이파이’ 서비스 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 제주 제주도, 관광명소·버스에 ‘공공 와이파이’ 서비스 온라인 기사 2017.07.12 14:14 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 관광지, 올레길, 해안도로 및 시내·외버스에 1150여대 무료 기가와이파이 설치 [제주=일요신문] 현성식 기자 = 제주도는 오는 8월부터 주요 관광명소 및 버스에서도 무료로 이용할 수 있는 공공 와이파이존을 확대 구축해 기가 무선인터넷 서비스를 제공한다고 12일 밝혔다. 공공 와이파이는 관광객 유동인구가 많은 관광명소를 중심으로 주요관광지 118곳, 올레길 출입구 32곳, 해안도로 21곳, 테마거리 19곳, 숲길 6곳, 전통시장 10곳 등을 대상으로 620대를 설치한다. 특히 오는 8월 교통체계개편에 맞춰 버스 환승장 49곳에 대해 추가 설치되고 시내외 버스 493대, 저상버스 28대, 마을버스 8대 등 총 529대 버스에 LTE급 와이파이가 설치된다. 이에 따라 이동 중인 버스 안에서도 모든 탑승객이 끊김이 없이 무료 인터넷서비스를 이용할 수 있게 된다. 이번 구축되는 공공 와이파이는 고기능,고성능 기가 와이파이(Giga Wi-Fi) 기술을 적용, 많은 관광객이 동시에 접속해도 빠른 속도로 데이터 전송이 가능하므로 동영상 등 멀티미디어를 활용한 스마트 관광 콘텐츠 서비스도 원활하게 제공이 가능할 전망이다. 공공 와이파이 이용방법은 Free Wi-Fi 스티커가 부착된 장소에서 ‘JeJu Free Wi-Fi’를 선택해 최초 1회만 인증 받으면 계속적으로 통신사에 관계없이 누구나 무료 와이파이 서비스를 이용할 수 있다. 공공 와이파이 접속 인증은 회원가입 등 불필요한 과정 없이 간단한 정보(국적, 성별, 나이, 방문목적)만 입력하면 서비스를 이용할 수 있다. 수집된 정보는 빅데이터 자료로 분석(관광객의 이동경로, 체류시간, 체류위치 등)돼 도민, 관광객, 기업 등에 공공데이터로 제공된다. 제주도는 지난해까지 도 전역 주민센터, 복지시설, 전통시장 등 다중 이용시설 및 관광지 840개소에 공공와이파이 1971대를 설치, 무료 인터넷 서비스를 제공하고 있다. 제주도 노희섭 정보융합담당관은 “이번 사업으로 청정과 공존의 제주 미래비젼 창출과 4차 산업혁명에 대응할 수 있는 ICT 신기술을 연계한 스마트관광 서비스 기반을 마련했다”며 “향후 도내 전 지역을 대상으로 공공 와이파이존을 지속적으로 확대해 관광객과 주민들이 편리하게 무선인터넷을 이용할 수 있는 환경을 조성해 나갈 계획”이라고 말했다. ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 제주 많이 본 뉴스 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 온라인 기사 ( 2021.06.21 15:50 ) JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 온라인 기사 ( 2021.06.17 18:53 ) 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 온라인 기사 ( 2021.06.21 15:34 ) 제주 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 3 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 8 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 제주 많이 본 뉴스 1 세기의 대화, 백세 철학자 김형석 교수 제주포럼 찾는다 2 JDC, 제주 스타트업 혁신성장 플랫폼 본격 운영 3 김태엽 서귀포시장 “경쟁력 강화해 새로운 미래 대비할 터” 4 도민사회 분열 조장...오영훈, 송재호, 위성곤의원 사퇴 촉구 5 제주도경제통상진흥원 미국 바이어와 MOU 체결.수출상담회 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 43곳 지정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 우수관광사업체 43곳 지정 등록 2017.07.02 07:39:11 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 올해 상반기 우수관광사업체로 43개 업체를 지정했다고 2일 밝혔다. 도는 최근 신청업체 54개소를 대상으로 심의해 이 중 관광지, 교통, 숙박, 여행업, 음식 5개 분야의 이들 업체를 지정했다.지정기간은 2019년 6월30일까지 2년이다. 우수관광사업체로 지정된 43개 업체에는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다. 도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다. 도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매년 상·하반기 우수관광사업체를 공모한 후 전문가로 구성된 심의위원회에서 심의 후 지정하고 있다. 이승찬 도 관광국장은 “지난 5월 우수관광사업체 평가표 개정으로 평가기준이 강화되고, 현장, 서면평가 구분으로 효율적인 평가가 이뤄지면서 우수한 관광사업체가 지정될 수 있었다"며 "앞으로 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고, 선정된 업체에 대한 지원을 확대하겠다"고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>“제주도, 예술관광의 섬으로”… 아트제주2017 개막 - 여성신문 × 전체기사 오피니언 전체 사설 기자의 눈 기고 연재 사회 전체 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 사회 일반 정치 전체 청와대 국회·정당 북한 행정 국방·외교 정치일반 경제 전체 금융 증권 산업·재계 중기·벤처 부동산 글로벌 경제 생활경제 경제 일반 문화 전체 책 음악 방송·영화 공연·전시 종교 문화 일반 생활 전체 건강 여행 음식 날씨 생활 일반 세계 전체 아시아·호주 미국·중남미 유럽 중동·아프리카 세계 일반 전국 IT/과학 전체 모바일 인터넷 뉴미디어 IT 일반 보안 컴퓨터 게임 과학 일반 스포츠 연예 동정 특별기획‧연재 총선 English 전체 Society Politics Economy Culture Life Photo People Sports Entertainment Opinion Special Network 대선 대선 여론조사 아내를 위한 레시피 ENGLISH 2022-10-11 12:04 (화) 콘텐츠 다운로드 로그인 회원가입 전체보기 최신 정치 사회 경제 문화 생활 오피니언 기획‧연재 기사검색 검색 제보 종이신문구독 후원 및 PDF구독 유튜브 구독 뉴스 오피니언 정치 사회 경제 문화 생활 전국 세계 스포츠 포토 동정 특별기획·연재 여신 서포터즈 구독신청 일시후원 정기후원 여성신문소개 허스토리 주요사업 연혁 만드는사람들 오시는길 회원가입 나의 정보관리 콘텐츠 다운로드 고객센터 공지사항 기사제보 투고 오류신고 기사문의 콘텐츠구매 독자이벤트 이전 다음 “제주도, 예술관광의 섬으로”… 아트제주2017 개막 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 “제주도, 예술관광의 섬으로”… 아트제주2017 개막 진주원 여성신문 기자 승인 2017.07.14 01:08 수정 2017-07-16 16:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 아트제주2017, 서귀포 하얏트리젠시호텔서 16일까지 50여 갤러리와 공예부스 작품·상품 2000점 무료 전시 직장에 반차 내고 작품보러 왔다는 제주도민들 “더 많은 지역주민들이 올 수 있길 바란다” 홍명표 조직위원장, 강명순 대표 등 주도 13일 서귀포 중문관광단지 내 하얏트리젠시제주호텔에서 아트제주2017이 개막됐다. 탁윤태 JIBS대표, 오광협 전서귀포시장, 이중환 서귀포시장, 강명순 아트제주대표, 홍명표 아트제주2017 조직위원장, 이문교 제주4.3평화재단이사장, 류즈페이 중국부총영사, 유현순 KTV대표, 홍혜경 KBS제주방송총국장, 패트릭베로브 하얏트리젠시제주 총지배인, 배우 구혜선, 이왈종 화백, 강명순 연갤러리 관장(왼쪽부터)이 개막식에서 테이프커팅을 하고 있다. ⓒ아트제주2017 무더위 속에 극성수기를 맞은 서귀포 중문관광단지의 특급 리조트 호텔에서 대규모 문화예술행사가 마련됐다. 하얏트리젠시제주의 객실 2개층과 연회장 등이 갤러리와 전시부스로 탈바꿈한 것이다. 전국에서 모인 관광객들은 자신들의 객실에서 나와 전시장이 된 다른 객실들을 편하게 드나들며 저명 작가들의 회화와 조형물들을 둘러봤다. 무료 감상의 기회뿐만 아니라 마음에 드는 작품은 구매도 할 수 있다. 자연경관과 먹거리 중심의 제주관광을 넘어서 문화예술의 접목을 통해 제주관광의 패러다임을 바꾸겠다는 야심찬 취지로 시작해 올해 2회째를 맞이해 13일 개최된 ‘2017아트제주’ 풍경이다. 2017아트제주는 휴양과 예술을 접목한 아트페어로 기획됐다. 여기에 문화예술상품의 주 소비층으로 분류되는 특급호텔 이용 관광객들의 접근성을 높이기 위해 ‘호텔페어’라는 방식도 더했다. 이날 저녁 어스름이 내려 앉자 시작된 개막식은 안개 낀 서귀포 앞바다를 정원 삼아 운치를 더했다. 제주관광의 품격을 높인다는 취지로 제주도 안팎에서 다양한 인사들이 모여들자 제주지역 문화예술업계 종사자들의 얼굴에 미소가 번졌다. 오랜 기간 문화예술인들에게 척박했던 한 제주에서 미래를 향한 활로가 마련될 것이라는 기대감이 느껴졌다. 그도 그럴 것이 대형 갤러리나 미술관이 없는 제주도에서 작품을 사고 파는 시장인 아트페어가 열린 것은 처음이기 때문이다. 특히 지난해 처음 열린 제1회 아트제주와 비교해 올해는 2배 이상 규모가 커졌다. 제주에서 28년간 살고 있는 이왈종 화백과 제주 출신의 백은주 작가 외에 연예인 중 대표적인 회화작가인 하정우·구혜선 씨의 특별전도 마련돼 대중의 관심을 이끌어내는데 역할을 했다. 작품은 전시하지만 참석 여부는 정해지지 않았던 구혜선 씨도 이날 제주행 비행기에 몸을 실었다. 이중섭탄생100주년 기념사업 추진위원장을 맡았던 홍영표 아트제주2017 조직위원장은 “아트제주는 이제 막 시작했지만 두 가지 꿈이 있다”면서 장기적인 비전을 제시했다. 제주가 세계적인 고품격관광지로서 인정을 받는데 예술 관광은 반드시 필요한 요소이고, 여기에서 아트제주가 큰 역할을 맡고자 한다는 것, 또 하나는 앞으로 아트제주가 제주도민과 미술계의 사랑을 먹고 성장해 아트바젤과 같은 세계적 아트페어로 성장하는 것이라고 밝혔다. 아트제주2017이 열리는 서귀포 하얏트리젠시제주호텔에서 관람객들이 전혁림 화백의 판화작품에 대한 설명을 듣고 있다. ⓒ아트제주2017 행사 첫날 정식 개장을 하기도 전부터 호텔을 찾아 기다린 제주도민들도 적지 않았다. 제주시에서 왔다는 현정림(54), 김산옥(54)씨는 전시회를 보기 위해 회사에 반차를 내고 왔다고 했다. 현 씨는 “제주도에는 문화예술행사를 접할 기회가 별로 없어 오래전부터 기다려왔다”면서 “이름만 접했던 이왈종 화백의 그림을 보니 따뜻하고 정감 있어서 좋다”고 말했다. 행사 장소가 호텔이라는 점에도 점수를 높게 매겼다. 30년이 넘은 서귀포의 대표적인 명소지만 특급호텔이다보니 방문할 기회가 거의 없었는데 이번 기회에 작품을 무료로 볼 수도 있고 객실도 구경할 수 있어 또 다른 재미가 있다는 것. 서울에 갈 때면 꼭 미술관에 들른다는 김씨는 “평소에 접하지 못하는 낯선 예술품을 보면 생각이 넓어지는 것 같아 일부러 찾게 된다”면서 “더 많은 지역주민들이 아트제주에 올 수 있길 바라는 마음에서 회사 동료와 함께 왔다”고 말했다. 이어 “구혜선씨가 다재다능해서 좋아한다. 내일 공개될 그림도 기대된다”면서 “구씨가 어떻게 해서 이런 재능을 갖게 됐는지 성장 배경이 궁금하니 꼭 물어봐달라”고 기자에게 요청하기도 했다. 하얏트리젠시제주호텔의 객실 일부가 16일까지 작품 전시 갤러리로 꾸며져 호텔 투숙객은 물론 일반인들도 자유롭게 작품을 감상하고 구입할 수 있도록 했다. ⓒ아트제주2017 이번 행사는 16일까지 계속되며 박영덕갤러리, 이정갤러리, 엄갤러리, 스페이스 나인 등 50여개 갤러리와 25개 공예전 부스가 2000여점의 작품을 전시하고 판매한다. 또 지역 예술가들을 대상으로 한 아트 컨퍼런스와 지역 어린이들을 위한 미술창작대회도 열린다. 제주 갈옷 브랜드인 ‘몽생이’의 양순자 대표는 “도시보다 제주지역 예술인들의 어려움은 더 큰데, 이렇게 예술인들을 인정해주고 자리를 마련해줘서 뜻깊다”고 주최측에 감사의 뜻을 전하기도 했다. 몽생이는 조랑말의 제주도 방언이다. 강명순 아트제주 대표는 “홍콩이나 싱가포르, 마이애미 페어처럼 제주가 예술관광의 섬으로 거듭날 수 있도록 혼신의 노력을 다하겠다”고 밝혔다. 저작권자 © 여성신문 무단전재 및 재배포 금지 진주원 여성신문 기자 runjjw@womennews.co.kr 다른기사 보기 기사가 마음에 드셨나요? 여성신문은 1988년 창간 이후 여성 인권 신장과 성평등 실현을 위해 노력해 온 국내 최초, 세계 유일의 여성 이슈 주간 정론지 입니다. 여성신문은 여성들의 더 나은 삶을 위해 여성의 '안전, 사회적 지위, 현명한 소비, 건강한 가족'의 영역에서 희망 콘텐츠를 발굴, 전파하고 있습니다. 저희 기사가 마음에 드셨다면 좋은 기사 후원하기를 해주세요. 여러분의 후원은 여성신문이 앞으로도 이 땅의 여성을 위해 활동 할 수 있도록 합니다. 여성신문 좋은 기사 후원하기 1,000원 3,000원 5,000원 10,000원 30,000원 50,000원 정기후원하기 후원하기 ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 이용 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 최신기사 민주당, '여가부 폐지' 공식 반대 "성평등가족부로 확대해야" 민주당, '여가부 폐지' 공식 반대 "성평등가족부로 확대해야" 시중은행 고금리에 저축은행 예금금리 평균 4%대 시중은행 고금리에 저축은행 예금금리 평균 4%대 여자라 당했다...스토킹 피해자 80% 여성, 가해자 81% 남성 여자라 당했다...스토킹 피해자 80% 여성, 가해자 81% 남성 대구시 ‘찾아가는 환경교육’ 실시 대구시 ‘찾아가는 환경교육’ 실시 신규확진 1만5476명... 사망 10명, 석 달 만에 최저 신규확진 1만5476명... 사망 10명, 석 달 만에 최저 남양주 ‘제17회 광릉숲축제’ 3만여명 찾아 남양주 ‘제17회 광릉숲축제’ 3만여명 찾아 “상전벽해” 땅끝 해남서 정원 품은 스마트도시를 만나다 “상전벽해” 땅끝 해남서 정원 품은 스마트도시를 만나다 초등학교 등 교육기관 5곳서 불법촬영 일삼은 복사기 관리회사 직원 구속영장 초등학교 등 교육기관 5곳서 불법촬영 일삼은 복사기 관리회사 직원 구속영장 인기기사 “나는 단지 글 쓰는 여자” ’페미니스트 아이콘‘ 아니 에르노, 노벨문학상 수상 1 “나는 단지 글 쓰는 여자” ’페미니스트 아이콘‘ 아니 에르노, 노벨문학상 수상 프랑스의 ’페미니스트 아이콘‘, 자전적이면서도 사회학적인 글쓰기로 명성을 떨친 작가 아니 에르노(82)가 노벨 문학상을 수상했다. 스웨덴 한림원은 6일(현지시간) 에르노를 수상자로... ‘작은 아씨들’, 지워지거나 제 몫을 빼앗기지 않는 여자들 2 ‘작은 아씨들’, 지워지거나 제 몫을 빼앗기지 않는 여자들 *이 글에는 드라마의 스포일러가 포함돼 있습니다. 분명 유쾌한 첫인상은 아니었다. ‘작은 아씨들’은 첫 화부터 자본에 대한 노골적 예찬을 늘어놓고 빈곤 혐오에 저항하지 않는 인물들... [아내를 위한 레시피] '설거지를 잘하는 남편'이 된 사연 3 [아내를 위한 레시피] '설거지를 잘하는 남편'이 된 사연 아내는 내가 세상에서 능숙하게 다루는 게 딱 두 개라며 놀린다. 하나는 펜이고 다른 하나는 수세미다. 펜을 잘 다룬다는 건 작가인 내겐 고마운 칭찬이다. 요즘은 대부분 PC나 노트... 김현숙 여가부 장관 "'여성' 특화 정책 국민 기대 못 미쳐… 버터나이프 크루 대표적" [전문] 4 김현숙 여가부 장관 "'여성' 특화 정책 국민 기대 못 미쳐… 버터나이프 크루 대표적" [전문] 김현숙 여성가족부 장관은 7일 부처 폐지가 담긴 정부 조직개편의 방향은 '실용'이라며 "작은 부처의 한계를 극복하고 실효적인 양성평등을 추진할 수 있는 조직 형태로 변화할 것"이라... 윤석열 정부 "여가부 폐지" 공식화... 복지부 산하 본부로 격하 5 윤석열 정부 "여가부 폐지" 공식화... 복지부 산하 본부로 격하 윤석열 정부가 여성가족부를 폐지하고 보건복지부 산하 본부 체제로 격하하는 정부조직 개편안을 공식화했다.행전안전부는 5일 여가부를 폐지하고, 관련 기능을 복지부 산하 본부로 두는 안... 페미니즘·기후위기·제주 4·3...시대가 던진 질문, 공연으로 답하다 6 페미니즘·기후위기·제주 4·3...시대가 던진 질문, 공연으로 답하다 제22회 서울국제예술제(Seoul Performing Arts Festival, SPAF)가 오는 6일 대학로에서 개막한다. 국내 최대 규모와 역사를 자랑하는 공연예술 축제다. 코... 비혼여성들의 유쾌하고 솔직한 삶, 사진으로 담다 7 비혼여성들의 유쾌하고 솔직한 삶, 사진으로 담다 주황 작가의 여덟 번째 개인전 ‘피리 부는 여자들’이 서울 종로구 갤러리조선에서 개막했다.작가는 약 1년간 대전광역시 선화동의 비혼여성 공동체 ‘비혼후갬’ 여성들의 일상을 사진에 ... 제2회 남양주 어린이 축제 열려 8 제2회 남양주 어린이 축제 열려 주광덕 남양주시장은 지난 3일 남양주체육문화센터에서 열린 ‘제2회 남양주 어린이 축제-꿈을 먹고 살지요’에 참석해 어린이들을 응원하는 시간을 가졌다.이번 축제는 남양주어린이미래재단... [날씨] 전국 곳곳 비... 서늘한 가을날씨 한낮에도 선선 9 [날씨] 전국 곳곳 비... 서늘한 가을날씨 한낮에도 선선 전국이 흐린 가운데 전국 곳곳에 비가 내리겠으며 한낮에도 선선할 것으로 보인다.기상청은 5일 전국이 대체로 흐리겠다고 예보했다.수도권과 강원 영서, 충청권, 경상 서부 내륙에 가끔... 문경과 트빌리시 ‘고요하고 기나긴 음성+기다림’전 개최 10 문경과 트빌리시 ‘고요하고 기나긴 음성+기다림’전 개최 ‘고요하고 기나긴 음성+기다림’을 주제로 이 10월 8일부터 내년 3월 10일까지 문경새재관리사무소 옛길박물관에서 열린다.한국과 조지아 수교 30주년을 기념, 경북 문경시와 조지아... 여성신문 친구되기 페이스북 트위터 Tweets by wnewskr About Us 여성신문 소개 구독 및 후원하기 기사제보 문의 불편신고 개인정보취급방침 RSS English Information (주)여성신문사 대표이사 : 김효선 서울특별시 종로구 삼일대로 447 부남빌딩 8층 대표전화 : 02-318-9300 팩스 : 02-752-0549 사업자등록번호 : 214-81-03304 여성신문 발행·편집인 : 김효선 청소년보호책임자 : 신준철 등록번호 : 서울-다06480 등록일 : 1988-04-30 Membership 로그인 회원가입 아이디·비밀번호찾기 Related Sites 여성마라톤대회 히포시코리아 여성문화네트워크 양성평등문화상 여성신문 트위터 여성신문 페이스북 여성신문 유튜브 여성신문의 영상·기사·사진 등 모든 콘텐츠의 지적재산권은 여성신문에 있으며 관련법의 보호를 받습니다. Copyright 2022 (주)여성신문사. All rights reserved. mail to admin@womennews.co.kr 위로</t>
   </si>
   <si>
     <t>효도 관광, 마음 편한 '제주도'로 보내드리자 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 효도 관광, 마음 편한 '제주도'로 보내드리자 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 문화 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 문화 여행/레저 효도 관광, 마음 편한 '제주도'로 보내드리자 CBS노컷뉴스 트래블팀 백주혜 기자 메일보내기 2017-07-05 16:00 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주도 여행에서는 해외 못지않은 환상적인 자연환경을 감상할 수 있는 것은 물론 음식이 입에 맞지 않을까 걱정할 필요도 없다. (사진=땡처리닷컴 제공) 자식들도, 부모님도 해외여행보다는 국내여행이 마음이 편하다. 제주도 여행에서는 해외 못지않은 환상적인 자연환경을 감상할 수 있는 것은 물론 음식이 입에 맞지 않을까 걱정할 필요도 없다. 게다가 할인된 입장권을 통해서 고품격 제주도 여행까지 충분히 가능하다. 땡처리닷컴을 통해 예약하면 할인은 물론 혜택까지 더해 제공되는 상품이 많다. 원스톱으로 준비하는 제주도 여행에서 부모님께서 편안히 휴식을 즐길 수 있는 효도 코스를 모아봤다. 중문 앞바다 한 가운데에서 감상하는 일출은 반드시 부모님께 보여드려야만 하는 여행의 하이라이트다. (사진=땡처리닷컴 제공) ◇ 퍼시픽 샹그릴라 요트투어유럽형 초호화 요트 샹그릴라는 제주도 중문 앞바다의 수려한 풍경과 함께 특별한 하루를 보낼 수 있게 만들어준다. 제주 제일의 해안절경 주상 절리대를 감상하면서 바다 가운데서 머물며 바다낚시를 즐긴다. 또한 음악과 함께 와인을 마시며 침실에서 휴식도 취할 수 있다. 와인과 차, 음료수가 무료로 제공되며 직접 낚시로 잡은 생선회를 즉석에서 맛볼 수 있다. 중문 앞바다 한 가운데에서 감상하는 일출은 반드시 부모님께 보여드려야만 하는 여행의 하이라이트다. 특이한 모양의 오름 단산과 한라산, 그리고 산방산과 산방산 앞바다, 제주의 대자연을 느끼며 여행에 지친 피로를 풀어보자. (사진=땡처리닷컴 제공) ◇ 산방산 탄산온천지하 600m에서 올라오는 산방산 탄산온천에 손을 넣는 순간 탄산기포가 생기기 시작한다. 국내 타 온천에 비해 월등히 높은 중탄산 및 유리탄산가스를 함유하고 있다. 산방산 탄산온천은 천장과 벽면이 유리로 설계되어 자연 안에 들어가 있는 느낌을 받을 수 있다. 또한 실외 노천탕, 황토방, 실내찜질방, 실내 온천탕도 있다.특이한 모양의 오름 단산과 한라산, 그리고 산방산과 산방산 앞바다, 제주의 대자연을 느끼며 여행에 지친 피로를 풀어보자. 특히 고혈압, 말초혈관 순환장애, 류마티스 등 성인병 치료와 피로회복 및 피부미용에 좋다고 하니 참고하자. 제주 속의 작은 제주로 불리는 우도에 아름다운 해안절경이 펼쳐진다.(사진=땡처리닷컴 제공) ◇ 우도우도는 제주여행에서 놓칠 수 없는 여행 코스다. 동쪽 성산항에서 배로 15분 남짓이면 도착하는 우도는 소가 드러누운 형상과 닮았다고 해서 이름 지어졌다. 보는 이의 눈길을 사로잡는 해안 절경과 초록 빛 초원에서 한가로이 풀을 뜯는 조랑말, 바다를 바라보며 자리를 지키는 흰 등대, 나지막한 지붕을 한 집들은 마치 영화 속 한 장면 같다. 특히 우도의 산호해변은 우도의 하고수동 해변과 더불어 넓고 얕은 해변이다. 홍조단괴 해수욕장으로 산호가 부서져 해변이 돼 독특한 매력을 자아낸다. 한국에서 보기 드문 해변으로 우도 8경의 대표 관광지다. 원스톱으로 준비하는 제주도 여행에서 부모님과 함께 즐기기 좋은 제주도 투어 코스를 소개한다. (사진=땡처리닷컴 제공) 한편, 항공권과 호텔 예약에 새바람을 몰고 왔던 땡처리닷컴이 렌트카 카테코리를 오픈하면서 제주여행 결합상품을 선보였다. 제주 여행 만들기라는 섹션은 항공, 숙박, 렌트카, 입장권이 결합돼있으며 정상가격보다 할인된 가격으로 구성되어있어 제주도 여행의 모든 예약을 한 번에, 저렴하게 끝낼 수 있다. 취재협조=땡처리닷컴(ttang.com) CBS노컷뉴스 트래블팀 백주혜 기자 메일 네이버 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
   </si>
   <si>
-    <t>제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.07.05 15:08 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × "도지사가 환경평가심의위 결정사항 무력화 한 적 없어" "사업중단-먹튀 방지 위해 자본검증 조례 개정할 것" ▲ 이승찬 관광국장이 5일 브리핑을 갖고 JCC(주) 박영조 전 회장의 기자회견 내용에 대해 반박하고 있다. ⓒ헤드라인제주 제주도 개발사(史)에서 최대 난개발 및 환경훼손이 우려되고 있는 오라관광단지 사업과 관련해, 사업자인 JCC(주) 박영조 전 회장이 기자회견을 통해 "원희룡 제주도지사가 법적 행정절차를 밟은 사업을 일방적으로 무력화 시켰다"고 비난한 것에 대해 제주특별자치도가 5일 정면으로 반박하고 나섰다.이승찬 제주도 관광국장은 이날 오후 2시 제주도청 기자실에서 브리핑을 열고 "각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바 없다"고 강조했다.이는 박 전 회장이 4일 기자회견을 열고 "원희룡 제주도정의 자본검증을 비롯해 각종 비법적.편법적 행위로 고통받고 있다"고 비판한 것에 따른 반박이다.이 국장은 "오라관광단지 개발사업은 지난 2015년 7월9일 환경영향평가 준비서가 제출됨에 따라 행정절차가 시작됐고, 그동안 분야별 각종 위원회의 심의 절차를 거쳐 지난해 10월14일 환경영향평가위원회 심의를 최종 마친 바 있다"면서 "그러나 이 사업에 대한 도민들의 우려가 많음에 따라 지하수 사용량 최소화 등을 추가로 보완 요구하게 됐다"고 설명했다.그는 "이 보완요구는 환경영향평가위원회의 심의결정을 존중한 가운데, 도지사가 추가로 보완요구한 사항"이라며 "각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바 없다"고 강조했다.이어 "제주도는 제주도의회 환경영향평가 동의안 처리 후 사업승인 신청서가 제출되면 엄격하고 철저한 자본검증을 실시하겠다는 입장을 견지해 왔다"면서 "그러나 지난달 도의회로부터 자본검증을 먼저 실시해 달라는 공식적인 요청이 있음에 따라 도민사회 의문과 우려를 해소하고, 도의회의 심도있는 심의 또한 필요하다고 판단돼 그 시기를 앞당겨 자본검증을 먼저 실시키로 결정했다"고 밝혔다.이 국장은 "자본검증이란 용어는 법적으로 명시되지는 않았으나, 각종 개발사업에 대해 사전 절차 이행 후 사업승인 신청서 제출시 투자계획과 자본조달계획을 확인하고 있는데 이를 자본검증이라 할 수 있다"면서 "앞으로 일정규모 개발사업에 대해 행정절차 추진 초기 단계에 자본검증을 실시할 근거를 마련하기 위해 조례 개정을 준비하고 있다"고 밝혔다.또 "오라단지를 계기로 각종 개발사업에 투자되는 중국자본 및 국내외 자본에 대해 심도있는 검증을 통해 사업추진 중단이나 속칭 '먹튀' 사례가 발생치 않도록 해 나갈 방침"이라고 말했다.이어진 일문일답에서 이승찬 국장은 환경영향평가 심의결정 후 보완요구 등 행정의 신뢰도가 하락했다는 지적에 대해서는 "사업자 입장에서 그렇게 말하는걸 부정할 수 없다. 이해는 한다"면서도 "사업자 입장도 중요하지만 도민 입장도 간과 할 수 없어 검증을 먼저 시작하게 됐다"고 답했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주 대규모 개발사업, 자본검증 불가피한 이유는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 웃자 2017-07-06 09:02:36 | 211.***.***.28 더보기 삭제하기 수정하기 쇼도 쇼다와야지 자본 검증 어떻게 할건데? 오라지구는 지금시점에서 개발이 되어서는 안된다고 보지만 당국이 시간 벌려는 수작으로 밖에는 안보임 그러면 아직까지 승인된 사업들은 그런 절차를 거쳤나? 그 동안 개발사업 승인절차를 20개월 이면 된다고 해오다 뭔소리여? 처음 신청서 접수될 때 모든 것이 검증이 돼야 접수받는 것이지 ! 답글쓰기 5 0 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 상반기 우수관광사업체 43개 지정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상반기 우수관광사업체 43개 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 상반기 우수관광사업체 43개 지정 기자명 고병수 기자 입력 2017.07.02 00:52 수정 2017.07.02 00:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 2일 제주도에 따르면 2017년 상반기 우수관광사업체 신청업체에 대한 심의결과 신청업체 54개소 중 관광지, 교통, 숙박, 여행업, 음식 5개 분야에 43개 업체가 지정됐다고 밝혔다.道는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다.우수관광사업체는 공모에 신청한 관광사업체의 신청서류, 행정처분 여부 등 자격요건심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거친 후에 지정이 되고 있다. 지정 기간은 2017년 7월 1일부터 2019년 6월30일까지 2년간이다.우수관광사업체로 지정된 43개 업체는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다. 또한 道 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택도 주어진다.이승찬 관광국장은 '지난 5월 우수관광사업체 평가표 개정으로 평가기준이 강화되고 현장, 서면평가 구분으로 효율적인 평가가 이뤄지면서 우수한 관광사업체가 지정될 수 있었다"며 "앞으로도 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고 선정된 업체에 대한 지원을 확대하는 방향으로 추진해 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 골프동호회 7월 친선골프대회 &lt; 행사·모임 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 골프동호회 7월 친선골프대회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 행사·모임 제주도관광협회 골프동호회 7월 친선골프대회 기자명 제주의소리					(news@jejusori.net) 입력 2017.07.12 13:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회 골프동호회는 12일 중문C.C에서 회원 40여명이 참가한 가운데 7월 친선 골프대회를 개최했다. ⓒ제주의소리 제주도관광협회 골프동호회(회장 고규완·제주씨월드 대표)는 12일 중문C.C에서 회원사 임직원과 가족 등 동호회 회원 40여명이 참가한 가운데 7월 친선 골프대회를 개최했다.관광협회는 앞으로도 지속적인 친선골프대회 개최를 통해 도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다. 제주의소리 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 2017년 우수관광사업체 지정...선정된 43곳은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 2017년 우수관광사업체 지정...선정된 43곳은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 2017년 우수관광사업체 지정...선정된 43곳은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.07.02 08:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 2017년 상반기 제주도 우수관광사업체로 43개 업체가 선정됐다.제주특별자치도는 2017년 상반기 우수관광사업체 신청업체에 대한 심의결과 신청업체 54곳 중 관광지, 교통, 숙박, 여행업, 음식 5개 분야에 43개 업체가 지정됐다고 2일 밝혔다.제주도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매해 상·하반기 우수관광사업체를 공모하여 지정하고 있다.이의 지정은 공모에 신청한 관광사업체의 신청서류, 행정처분 여부 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 선정되고 있는데, 지정 기간은 2년이다.지정된 업체에 대해서는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다.또 제주도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.이승찬 제주특별자치도 관광국장은 "지난 5월 우수관광사업체 평가표 개정으로 평가기준이 강화되고, 현장, 서면평가 구분으로 효율적인 평가가 이뤄지면서 우수한 관광사업체가 지정될 수 있었다"면서 "앞으로도 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고, 선정된업체에 대한 지원을 확대하는 방향으로 추진해 나갈 계획"이라고 말했다.다음은 이번에 우수관광사업체로 지정된 업체 명단.△관광지=산굼부리, 자동차박물관, 제주테디베어뮤지엄, 플레이케이팝, 아프리카박물관, 김녕요트투어, 제주레일바이크, 서귀포잠수함, 일출랜드, 퍼시픽랜드, 요트투어샹그릴라, 대유랜드, 씨월드, 생각하는정원, 제주민속촌, 여미지식물원, 김녕미로공원, 한림공원, 소인국테마파크, 휴애리, 방림원, 러브랜드△교통=동서양고속, 오케이렌트카△숙박=파인비치, 포시즌, 스카이라인휴양펜션, 헌스빌 펜션, 스카이리더스호텔, 뉴제주호텔,비치스토리호텔, 엘루이호텔△여행업=문주란, 제이트립△음식점=다미진, 서귀포흑돈, 고집돌우럭, 씨푸드샹그릴라, 천해천, 돌바르방뚝배기, 제주오라성, 사해방, 쌍둥이횟집본점. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 기자명 고병수 기자 입력 2017.07.06 03:23 수정 2017.07.06 03:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 기자회견하는 이승찬 제주도 관광국장. (제주=국제뉴스) 고병수 기자 = 제주오라관광단지에 대한 사업 지연 등에 따라 사업자인 제이씨씨(주)가 강하게 반발하고 이에 대해 제주도는 5일 입장을 밝혔다.그러나 제주도의 입장은 도민여론과 도의회 때문이라고 시사하며 그 원인을 이들에게 떠밀어 문제로 지적되고 있다.특히 일자리와 대규모 지역경제살리기 등 순기능에도 불구하고 또한 망가진 환경를 볼모로 한 도의회 일부 도의원의 강한 제지, 시민사회세력의 반대, 일부도민들의 반대를 이유로 행정의 투자관련 시스템이 결국 외국투자기업에 브레이크를 거는 모양새가 돼 찬성 도민 등의 우려도 제기되고 있다는 것.그리고 제주도갈등위원회가 설명회 등을 거쳤지만 양자의 극한 대립을 중재하는 제대로 된 여론형성도 못했다.또한 도의회도 설명회 등을 거쳤으나 내년 선거를 앞둬 정치적 압박에 제주도정과 마찬가지로 두 손을 든 꼴이 됐다는 지적이다.사업자가 4일 밝힌 제주도정과 도의회의 편법으로 보여지는 각종 행정행위에 줄타기 정치 전형, 제주 투자기피처 등의 강한 주장도 나와 귀추가 주목되고 있다.5일 이승찬 제주도 관광국장은 제주도청에서 기자브리핑을 통해 "(오라관광단지) 사업에 대한 도민들의 우려가 많아 환경적인 분야인 지하수 사용량 최소화 등을 추가로 우리 도에서 보완요구하게 됐다"며 "이는 환경영향평가위원회의 심의결정을 존중한 가운데 도지사가 추가로 보완요구한 사항으로 각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바가 없음을 분명히 밝힌다"고 했다. 또한 "사업에 대한 자본검증은 제주도에 투자되는 사업으로는 유사 이래 최대 규모의 자본이 투자되는 사업임에 따라 자본의 실체와 조달가능여부에 대해 도민사회로부터 검증의 필요성을 수차례 제기해 왔다"고 사업지연의 사유와 자본검증의 필요성을 밝혔다.그리고 이 국장은 "우리 도에서는 도의회의 환경영향평가 동의안 처리 후 사업승인 신청서가 제출되면 엄격하고 철저한 자본검증을 실시하겠다는 입장을 견지해 왔다"고 주장했다.그러면서 그는 "지난 6월 13일 도의회로부터 자본검증을 먼저 실시해 달라는 공식적인 요청이 있음에 따라 도민사회의 의문과 우려를 해소하고 도의회의 심도 있는 심의 또한 필요하다고 판단돼 그 시기를 앞당겨 자본검증을 먼저 실시하기로 결정했다"고 밝혔다.한편 이 국장은 "자본검증이란 용어는 법적으로 명시되지는 않았으나 각종 개발사업에 대해 사전 절차가 이행된 후 사업자로부터 사업승인신청서가 제출되면 그에 따른 투자계획과 자본조달계획 등을  확인하고 있으며, 이는 곧 자본검증이라고 할 수 있다'고 정의했다.그는 "앞으로 道는 일정규모의 개발사업에 대해 행정절차 추진 초기 단계에 자본검증을 실시할 근거 마련을 위해 조례 개정을 준비하고 있다"며 "도는 오라관광단지 개발사업에 대한 자본검증을 계기로 각종 개발사업에 투자되는 중국자본은 물론 전반적인 국내외  자본에 대한 심도있는 검증을 통해 사업승인 후 사업추진이 중단되거나 속칭 먹튀 사례가 발생하는 일이 없도록 해 나가고 제주도와 도민에게 이익이 되는 사업으로 추진되도록 만전을 기해 나갈 방침"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도관광협회 골프동호회 7월 친선골프대회 &lt; 행사·모임 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 골프동호회 7월 친선골프대회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 행사·모임 제주도관광협회 골프동호회 7월 친선골프대회 기자명 제주의소리					(news@jejusori.net) 입력 2017.07.12 13:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회 골프동호회는 12일 중문C.C에서 회원 40여명이 참가한 가운데 7월 친선 골프대회를 개최했다. ⓒ제주의소리 제주도관광협회 골프동호회(회장 고규완·제주씨월드 대표)는 12일 중문C.C에서 회원사 임직원과 가족 등 동호회 회원 40여명이 참가한 가운데 7월 친선 골프대회를 개최했다.관광협회는 앞으로도 지속적인 친선골프대회 개최를 통해 도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다. 제주의소리 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 오라관광단지 사업지연...도민여론-도의회로 공 떠밀어 기자명 고병수 기자 입력 2017.07.06 03:23 수정 2017.07.06 03:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 기자회견하는 이승찬 제주도 관광국장. (제주=국제뉴스) 고병수 기자 = 제주오라관광단지에 대한 사업 지연 등에 따라 사업자인 제이씨씨(주)가 강하게 반발하고 이에 대해 제주도는 5일 입장을 밝혔다.그러나 제주도의 입장은 도민여론과 도의회 때문이라고 시사하며 그 원인을 이들에게 떠밀어 문제로 지적되고 있다.특히 일자리와 대규모 지역경제살리기 등 순기능에도 불구하고 또한 망가진 환경를 볼모로 한 도의회 일부 도의원의 강한 제지, 시민사회세력의 반대, 일부도민들의 반대를 이유로 행정의 투자관련 시스템이 결국 외국투자기업에 브레이크를 거는 모양새가 돼 찬성 도민 등의 우려도 제기되고 있다는 것.그리고 제주도갈등위원회가 설명회 등을 거쳤지만 양자의 극한 대립을 중재하는 제대로 된 여론형성도 못했다.또한 도의회도 설명회 등을 거쳤으나 내년 선거를 앞둬 정치적 압박에 제주도정과 마찬가지로 두 손을 든 꼴이 됐다는 지적이다.사업자가 4일 밝힌 제주도정과 도의회의 편법으로 보여지는 각종 행정행위에 줄타기 정치 전형, 제주 투자기피처 등의 강한 주장도 나와 귀추가 주목되고 있다.5일 이승찬 제주도 관광국장은 제주도청에서 기자브리핑을 통해 "(오라관광단지) 사업에 대한 도민들의 우려가 많아 환경적인 분야인 지하수 사용량 최소화 등을 추가로 우리 도에서 보완요구하게 됐다"며 "이는 환경영향평가위원회의 심의결정을 존중한 가운데 도지사가 추가로 보완요구한 사항으로 각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바가 없음을 분명히 밝힌다"고 했다. 또한 "사업에 대한 자본검증은 제주도에 투자되는 사업으로는 유사 이래 최대 규모의 자본이 투자되는 사업임에 따라 자본의 실체와 조달가능여부에 대해 도민사회로부터 검증의 필요성을 수차례 제기해 왔다"고 사업지연의 사유와 자본검증의 필요성을 밝혔다.그리고 이 국장은 "우리 도에서는 도의회의 환경영향평가 동의안 처리 후 사업승인 신청서가 제출되면 엄격하고 철저한 자본검증을 실시하겠다는 입장을 견지해 왔다"고 주장했다.그러면서 그는 "지난 6월 13일 도의회로부터 자본검증을 먼저 실시해 달라는 공식적인 요청이 있음에 따라 도민사회의 의문과 우려를 해소하고 도의회의 심도 있는 심의 또한 필요하다고 판단돼 그 시기를 앞당겨 자본검증을 먼저 실시하기로 결정했다"고 밝혔다.한편 이 국장은 "자본검증이란 용어는 법적으로 명시되지는 않았으나 각종 개발사업에 대해 사전 절차가 이행된 후 사업자로부터 사업승인신청서가 제출되면 그에 따른 투자계획과 자본조달계획 등을  확인하고 있으며, 이는 곧 자본검증이라고 할 수 있다'고 정의했다.그는 "앞으로 道는 일정규모의 개발사업에 대해 행정절차 추진 초기 단계에 자본검증을 실시할 근거 마련을 위해 조례 개정을 준비하고 있다"며 "도는 오라관광단지 개발사업에 대한 자본검증을 계기로 각종 개발사업에 투자되는 중국자본은 물론 전반적인 국내외  자본에 대한 심도있는 검증을 통해 사업승인 후 사업추진이 중단되거나 속칭 먹튀 사례가 발생하는 일이 없도록 해 나가고 제주도와 도민에게 이익이 되는 사업으로 추진되도록 만전을 기해 나갈 방침"이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
   <si>
     <t>여름철 휴가 시즌… 제주도 관광지와 맛집 탐방으로 즐길 수 있어 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.08.02 (화) 구름많음동두천 25.8℃ 구름많음강릉 31.0℃ 비서울 26.8℃ 흐림대전 29.9℃ 구름많음대구 31.0℃ 구름많음울산 29.8℃ 구름많음광주 30.1℃ 박무부산 28.1℃ 구름많음고창 29.5℃ 구름많음제주 32.3℃ 구름많음강화 26.0℃ 구름조금보은 28.3℃ 구름많음금산 28.5℃ 구름많음강진군 31.5℃ 흐림경주시 30.0℃ 구름많음거제 27.7℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 여름철 휴가 시즌… 제주도 관광지와 맛집 탐방으로 즐길 수 있어 김경주 기자 등록 2017.07.04 17:03:11 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 무더운 여름이 다가오는 지금, 벌써부터 여름 피서를 떠날 계획을 잡고 있는 이들이 많다. 그중에서도 가족모임, 연인, 친구들끼리 추억도 쌓으면서 푸른 하늘과 에메랄드빛 바다의 매력을 한껏 느껴 볼 수 있는 제주도가 인기를 끌고 있다.제주도는 유네스코 세계유산에도 등재될 정도로 우리나라의 보물이라 불리고 있는 지역이다. 화려한 자연경관은 물론, 볼거리가 많아 많은 관광객들이 찾아주는 곳이다. 관람객이 많이 찾아주는 만큼, 다양한 먹거리도 많다.그중 시원한 세계맥주와 맛있는 안주를 맛볼 수 있는 제주공항 근처 맛집 ‘루카앤비어’가 이목을 끌고 있다. 루카앤비어는 넓고 운치 있는 정원과 분위기 있는 실내•외 인테리어로 젊은 연인들 데이트 장소로도 종종 이용되고 있다는 것이 업체 측 설명이다. 또한 예쁜 실내 인테리어로 사진 찍기 좋은 제주도 카페로 알려져 있어, 많은 관광객들이 연일 찾아주고 있다.제주도 맛집 '루카앤비어'에서 가장 인기 있는 메뉴는 호텔 출신 쉐프가 직접 구운 숯불갈비 바베큐이다. 풍부한 육즙과 함께 부드럽고 담백한 맛을 느껴 볼 수 있어 단일 인기 메뉴로 자리 잡고 있다.그 외에도 연어샐러드, 과일안주, 숯불소세지, 피자 등 고급 호텔식 안주 메뉴들이 많아 더운 여름 야외에서 시원한 세계맥주 한잔을 곁들여 먹는 재미 또한 느껴볼 수 있다.제주시 맛집 루카앤비어 관계자는 "제주공항과 가까워 접근하기 용이한 것은 물론, 여행 동안 쌓인 피로도 시원한 세계맥주와 풍부한 캠핑 음식들을 통해 풀 수 있을 것"이라며 "영업시간은 저녁 8시부터 새벽 2시까지이므로 참고 바란다"고 전했다. 김경주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정치 [이슈] 尹대통령 휴가 중 정국구상, 대통령실 선긋기에도 ‘인적쇄신’ 요구 봇물 고금리에 '6억원 이하' 저가 아파트 거래 늘었다 [리서치뷰] 與 ‘한동훈13%-홍준표12%-오세훈11%’, 野 ‘이재명41%-이낙연15%’ [리서치뷰] 국민의힘 진로 ‘조기 전대29%-비대위 전환27%-현 체제 유지10%’ 국민의힘 비대위 전환...이준석, ‘윤핵관’ 음모론 이어 '법적 대응' 할까 尹대통령 하계휴가 중 서울 머물며 정국구상 “지방 휴가지에는 안 가기로 결정” 많이 본 기사 1[이슈] 때릴수록 빠져드는 '스타장관' 한동훈 블랙홀…대정부질문 이어 법사위에서도 2[이슈] 20%대 폭락 책임 ‘윤석열 리스크’ 여당에서 제기...‘당정대 전면 쇄신’ 3尹정부, 문재인 정부 5년 방만한 '공공기관' 대폭 축소...'공공기관 혁신 가이드라인' 확정 4내년 부부공동 1주택 종부세 '상위 1%'만 낸다 5박순애 "만5세 입학, 사회적 합의 도출할 것…'4년간 순차적 조정안' 확정 아냐" 6국민의힘 ‘비대위 체제’ 전환…비대위원장 선출, 조기 전당대회 등 과제 산적 이슈 더보기 [이슈] 尹대통령 휴가 중 정국구상, 대통령실 선긋기에도 ‘인적쇄신’ 요구 봇물 윤석열 대통령이 휴가 중 정국구상이 주목된다. 국정 지지율이 20%대로 하락해 국정동력을 상실한 상황에 대한 타개책이 나올지 여부에 관심이 쏠린다. 특히 야권이 아닌 여권 내부에서 윤 대통령에게 국정쇄신을 요구하는 목소리가 나오는 상황을 감안하면 윤 대통령은 휴가 중에 어떤 형태로든 민심을 수습하기 위한 국정쇄신방안을 내놓을 것이란 전망이 지배적이다. 그러나 대통령실은 윤 대통령이 휴가 중 쇄신방안을 고민할 것이라는 추측에 대해 “억측”이라는 말로 부인했다. 대통령실 핵심관계자는 지난 1일 오전 기자들에게 윤 대통령 휴가 일정에 대해 “지방 휴양지 이동도 검토했으나 안하기로 했다”며 “서울에 머물면서 향후 정국 구상하고, 산책하고 하면서 휴식을 취할 것으로 알고 있다”고 말했다. 윤 대통령이 재택휴가 중 정국구상에 집중할 것이란 의미로 해석됐다. 그러나 이 관계자는 언론들이 윤 대통령이 휴가 중 정국구상이 대통령실과 정부 등에 대한 인적 쇄신으로 이어지는 보도가 나오자 오후에 다시 기자들을 만나 “대통령실 관계자나 여권 관계자로 해서 대통령 (정국구상)추측이 나오고 있는데 대부분 근거 없는 이야기”라며 일축했다. 또 “(윤 대통령은) 휴가가 끝나면 무엇을 하 [이슈] 20%대 폭락 책임 ‘윤석열 리스크’ 여당에서 제기...‘당정대 전면 쇄신’ [이슈] '윤핵관' 주도 비대위 강행에 친이준석계 “이준석 몰아내기” 정면 반발 [정연아의 정치인 이미지 거꾸로 보기] 윤석열 대통령의 패션이 심각하다(1) [이슈] 권성동 당대표 대행 사퇴, 조수진·윤영석 최고위원도 사퇴…비대위 체제 전환 인터뷰 더보기 [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리뉴스 강경우 PD]지역경제발전 일환으로 ‘노사상생 광주형 일자리’를 성공시킨 이용섭 전 당시 광주시장은 4대 원칙을 강조하며 노사 갈등 해결에 중요성을 짚었다. 이는 최근 금속노조, 민주노총 등 전국적으로 확산되었던 대우조선해양 파업 사태에 시사하는 바가 크다. 이 전 광주시장은 25일 열린 &lt;폴리뉴스&gt; 김능구 대표와의 대담을 통해서 “늘 대립과 갈등의 관계였던 노와 사가 모두 만족하는 일자리는 없을까는 질문에 광주가 해결한 것이다”며 노사 상생을 통해 23년 만에 국내 자동차공장을 생산할 수 있던 원동력을 전했다. 그는 “23년만에 처음으로 국내 자동차공장을 건설했고, 이곳에서 첫 양산되고 있는 캐스퍼는 그야말로 대박이 났다”며 “직간접 일자리 1만개 이상을 창출하는 광주형 일자리는 청년들의 일자리 문제 해결과 함께 ‘고비용 저효율’이라는 한국경제의 고질적 문제 해결의 돌파구를 마련했다는 점에서 그 의미가 크다”고 밝혔다. [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [스페셜 인터뷰] 이용섭 전 광주시장 “국가균형발전 정책, 지역국가(Region State) 개념의 초광역화 전략으로 전면 전환해야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” [김능구의 정국진단] 이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 현대제철, 日 베테랑 다나카 요코 영입…미드필드 전력 향상 기대 WK리그 최강자 현대제철 레드엔젤스가 여름 이적시장에서 일본 출신의 베테랑 미드필더를 영입하고 리그10연패(連覇)를 노린다. 현대제철은 스페인 여자축구리그 라요 바예카노 소속 미드필더 다나카 요코(29)와 입단 계약을 체결했다고1일 밝혔다. 다나카 선수는 일본 야마구치현 출신으로 아이낙 고베,노지마 스텔라 가나가와 등 일본 프로리그에서 주전 미드필더로 활동했다.2019년 스페인으로 이적해 스포르팅 데 우엘바를 거쳐 라요 바예카노에서 활약한 가운데, 미드필드에서의 폭넓은 활동과 적극적인 수비가담은 물론 준수한 개인기와 위력적인 중거리 슛을 보유한 올라운드 플레이어로 평가받고 있다. 데뷔 때부터 일본 여자축구의 유망주로 기대를 모았던 선수로2010년U-17월드컵 준우승, 2011년AFC챔피언십 우승, 2012년U-20월드컵3위 등 일본 국가대표팀을 이끈 바 있다.프로에 진출한 이후에도 일본 리그 통산139경기54골,스페인 리그 통산42경기5골(20~21시즌 기준)의 빼어난 성적을 기록했다. 현대제철 레드엔젤스 관계자는"미드필더 보강 차원에서 기량을 갖춘 선수를 영입하게 됐다"며"공격 연계능력과 패스 플레이가 우수해 전력에 큰 보탬이 될 것"이라고 말했다. [한면희 칼럼] 정치철학으로 조망하는 낙태권 판결의 논쟁적 의미 한미 금리역전에도 돌아온 외국인, 7월 코스피 순매수 전환…올해 들어 '최대' 저소득층 기저귀·조제분유 지원금, 다음 달부터 인상…고물가 부담 경감 방안 일환 '좌파물결'로 일렁이는 중남미 경제강국…국민 기대 부합 가능할까 폴리TV 더보기 [폴리TV][스페셜 인터뷰] 씽크풀 김동진 대표 “외국인 반년째 국내주식 ‘팔자’, 미중 갈등·韓저출산 영향” [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 08월 02일 17시 17분 최상단으로</t>
   </si>
   <si>
-    <t>제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 사회일반 제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 김동일 기자 승인 2017.07.09 13:08 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 조만간 협약 맺어 ‘맘껏 놀자 바닥놀이판’ 사업 추진 [제주일보=김동일 기자] 제주도정과 유니세프가 도내 어린이들의 놀이문화를 확산하기 위해 관광지와 공원, 초등학교 등에 놀이판을 설치한다.9일 제주특별자치도와 유니세프 한국위원회 등에 따르면 탑동광장, 레포츠공원 등 18곳에 ‘맘껏 놀자 바닥놀이판’이 들어선다.이 같은 놀이판 설치는 어린이들의 성장·발달 지원과 놀이문화 확산 등을 위한 것으로, 유명 관광지는 물론 공원, 주거지역, 초등학교 등 모두 18곳에 설치될 예정이다.제주도는 조만간 유니세프 한국위원회와 협약을 맺어 사업을 추진할 계획으로 바닥놀이판이 들어서면 어린이들의 비만 문제 개선은 물론 성장 발달 등에 기여할 것으로 기대하고 있다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>오라관광단지 편법행정 비판에 제주도 강력 반박 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 오라관광단지 편법행정 비판에 제주도 강력 반박 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 오라관광단지 편법행정 비판에 제주도 강력 반박 제주CBS 이인 기자 메일보내기 2017-07-05 16:17 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 이승찬 제주도 관광국장 "도민 입장과 이익이 우선" 이승찬 제주도 관광국장이 5일 도청 기자실에서 오라관광단지 조성사업에 대한 자본검증 이유를 설명하고 있다. (사진=이인 기자) 제주 오라관광단지 전 사업자가 원희룡 도정의 선(先) 자본검증을 편법행정이라고 비판한 데 대해 제주도가 반박하고 나섰다. 도민 사회의 의혹을 해소하기 위한 것으로 도민의 입장과 이익을 우선 고려한 조치라는 게 제주도의 입장이다. 박영조 전 JCC(주) 회장이 원희룡 도정을 성토한 가운데 제주도 이승찬 관광국장은 5일 도청 기자실에서 브리핑을 갖고 제주 오라관광단지 조성 사업에 대한 선(先) 자본검증의 이유를 조목조목 설명했다. 이 국장은 오라관광단지 사업의 경우 유사 이래 최대 규모의 자본이 투자되는 사업이어서 자본의 실체와 조달가능여부에 대해 도민사회로부터 검증의 필요성이 제기됐다고 말했다. 이에 제주도의회가 환경영향평가 동의안 처리 전에 자본검증을 실시해달라는 공식 요청을 했고 제주도가 이를 수용한 것이라고 이 국장은 강조했다. 도민 사회의 의문과 우려를 해소하고 도의회의 심도 있는 심의에도 도움이 될 것으로 판단해 선(先) 자본검증 요청을 받아들였다는 것이다. 제주도는 당초 도의회에서 환경영향평가 동의안이 처리되고 사업승인 신청서가 제출되면 자본검증을 실시할 계획이었다. 이 국장은 또 박영조 전 JCC 회장이 자본검증위원회를 통한 자본검증은 조례와 규정에도 없고 세계 어느 나라에도 없다고 주장한 데 대해서는 자본조달계획 등을 확인하는 절차라고 해명했다. 이 국장은 자본검증이란 용어는 법적으로 명시되지는 않았지만 각종 개발사업의 사전 절차가 이행된 뒤 사업자로부터 승인 신청서가 제출되면 투자계획과 자본조달계획 등을 확인하고 있다며 이는 곧 자본검증이라 할 수 있다고 말했다. 제주도는 선(先) 자본검증을 수용한 이후 JCC측과 한 차례 만났다는 사실도 공개했다. 이승찬 국장은 환경영향평가 동의안 처리 전 자본검증을 하게 된 이유를 설명했고 JCC측에서는 당초 절차대로 가지 않은 데 대한 지적을 했다며 대화 내용을 소개했다. 자본검증을 언제까지 완료할 지에 대해서는 여전히 확답을 피했다. 이 국장은 자본검증의 기준과 규모, 범위 등을 실무적으로 논의하고 있는 단계라며 얼마나 걸릴지 현 단계에서는 말할 수 없고 로드맵이 확정되면 투명하게 공개하는 시간을 별도로 갖겠다고 설명했다. 오라관광단지뿐만 아니라 일정규모의 개발사업에 대해서는 행정절차 초기 단계에 자본검증을 실시할 것이며 그 근거 마련을 위한 조례개정도 서두르겠다고 이 국장은 밝혔다. 오라관광단지 자본검증을 계기로 중국자본은 물론 전반적인 국내외 자본에 대한 심도있는 검증을 통해 속칭 '먹튀' 사례가 발생하지 않도록 만전을 기하겠다는 것이다. 박 전 회장이 법적 절차인 6개 심의위원회 결정을 무력화했다고 주장한 데 대해서도 이 국장은 제주의 주요 환경분야인 지하수 사용량 최소화 등을 추가로 보완 요구한 것일 뿐 원희룡 지사가 각종 위원회의 심의결정을 일방적으로 무력화한 사실이 없음을 분명히 밝힌다고 반박했다. 이 국장은 이어 사업자의 입장도 이해하지만 제주도는 도민의 입장을 결코 간과할 수 없다며 도민의 이익을 중심으로 결정할 수밖에 없다고 말했다. 제주 오라관광단지는 JCC(주) 제주시 오라2동 일대 357만5천㎡ 부지에 오는 2021년까지 총사업비 5조2천억 원을 투입해 관광호텔(2천3백 실 규모)과 콘도(1270실 규모), 휴양문화시설, 상업시설, 골프장(18홀 규모) 등을 짓는 도내 최대 규모의 개발 사업이다.JCC 지분은 최근 중국자산관리공사 기업인 화융에 100% 이전됐고 박영조 전 JCC 회장은 4일 기자회견을 통해 원희룡 도정이 비법적, 편법 행정으로 오라관광단지 사업의 인허가를 지연시키고 있다며 성토했고 '편법, 탈법 행정으로 희생양이 된 제주 오라관광단지 호소문'을 제주도에 전달하기도 했다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 한복판 공원서 권총 극단 시도…수사 착수 "경찰 아니다" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 제주CBS 이인 기자 메일 네이버 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 "오라관광단지 자본검증, '먹튀' 방지위해 필요" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.07.05 15:08 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × "도지사가 환경평가심의위 결정사항 무력화 한 적 없어" "사업중단-먹튀 방지 위해 자본검증 조례 개정할 것" ▲ 이승찬 관광국장이 5일 브리핑을 갖고 JCC(주) 박영조 전 회장의 기자회견 내용에 대해 반박하고 있다. ⓒ헤드라인제주 제주도 개발사(史)에서 최대 난개발 및 환경훼손이 우려되고 있는 오라관광단지 사업과 관련해, 사업자인 JCC(주) 박영조 전 회장이 기자회견을 통해 "원희룡 제주도지사가 법적 행정절차를 밟은 사업을 일방적으로 무력화 시켰다"고 비난한 것에 대해 제주특별자치도가 5일 정면으로 반박하고 나섰다.이승찬 제주도 관광국장은 이날 오후 2시 제주도청 기자실에서 브리핑을 열고 "각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바 없다"고 강조했다.이는 박 전 회장이 4일 기자회견을 열고 "원희룡 제주도정의 자본검증을 비롯해 각종 비법적.편법적 행위로 고통받고 있다"고 비판한 것에 따른 반박이다.이 국장은 "오라관광단지 개발사업은 지난 2015년 7월9일 환경영향평가 준비서가 제출됨에 따라 행정절차가 시작됐고, 그동안 분야별 각종 위원회의 심의 절차를 거쳐 지난해 10월14일 환경영향평가위원회 심의를 최종 마친 바 있다"면서 "그러나 이 사업에 대한 도민들의 우려가 많음에 따라 지하수 사용량 최소화 등을 추가로 보완 요구하게 됐다"고 설명했다.그는 "이 보완요구는 환경영향평가위원회의 심의결정을 존중한 가운데, 도지사가 추가로 보완요구한 사항"이라며 "각종 위원회의 심의 결정사항을 도지사가 일방적으로 무력화 한 바 없다"고 강조했다.이어 "제주도는 제주도의회 환경영향평가 동의안 처리 후 사업승인 신청서가 제출되면 엄격하고 철저한 자본검증을 실시하겠다는 입장을 견지해 왔다"면서 "그러나 지난달 도의회로부터 자본검증을 먼저 실시해 달라는 공식적인 요청이 있음에 따라 도민사회 의문과 우려를 해소하고, 도의회의 심도있는 심의 또한 필요하다고 판단돼 그 시기를 앞당겨 자본검증을 먼저 실시키로 결정했다"고 밝혔다.이 국장은 "자본검증이란 용어는 법적으로 명시되지는 않았으나, 각종 개발사업에 대해 사전 절차 이행 후 사업승인 신청서 제출시 투자계획과 자본조달계획을 확인하고 있는데 이를 자본검증이라 할 수 있다"면서 "앞으로 일정규모 개발사업에 대해 행정절차 추진 초기 단계에 자본검증을 실시할 근거를 마련하기 위해 조례 개정을 준비하고 있다"고 밝혔다.또 "오라단지를 계기로 각종 개발사업에 투자되는 중국자본 및 국내외 자본에 대해 심도있는 검증을 통해 사업추진 중단이나 속칭 '먹튀' 사례가 발생치 않도록 해 나갈 방침"이라고 말했다.이어진 일문일답에서 이승찬 국장은 환경영향평가 심의결정 후 보완요구 등 행정의 신뢰도가 하락했다는 지적에 대해서는 "사업자 입장에서 그렇게 말하는걸 부정할 수 없다. 이해는 한다"면서도 "사업자 입장도 중요하지만 도민 입장도 간과 할 수 없어 검증을 먼저 시작하게 됐다"고 답했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주 대규모 개발사업, 자본검증 불가피한 이유는? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 웃자 2017-07-06 09:02:36 | 211.***.***.28 더보기 삭제하기 수정하기 쇼도 쇼다와야지 자본 검증 어떻게 할건데? 오라지구는 지금시점에서 개발이 되어서는 안된다고 보지만 당국이 시간 벌려는 수작으로 밖에는 안보임 그러면 아직까지 승인된 사업들은 그런 절차를 거쳤나? 그 동안 개발사업 승인절차를 20개월 이면 된다고 해오다 뭔소리여? 처음 신청서 접수될 때 모든 것이 검증이 돼야 접수받는 것이지 ! 답글쓰기 5 0 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 상반기 우수관광사업체 43개 지정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상반기 우수관광사업체 43개 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 상반기 우수관광사업체 43개 지정 기자명 고병수 기자 입력 2017.07.02 00:52 수정 2017.07.02 00:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 2일 제주도에 따르면 2017년 상반기 우수관광사업체 신청업체에 대한 심의결과 신청업체 54개소 중 관광지, 교통, 숙박, 여행업, 음식 5개 분야에 43개 업체가 지정됐다고 밝혔다.道는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다.우수관광사업체는 공모에 신청한 관광사업체의 신청서류, 행정처분 여부 등 자격요건심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거친 후에 지정이 되고 있다. 지정 기간은 2017년 7월 1일부터 2019년 6월30일까지 2년간이다.우수관광사업체로 지정된 43개 업체는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다. 또한 道 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택도 주어진다.이승찬 관광국장은 '지난 5월 우수관광사업체 평가표 개정으로 평가기준이 강화되고 현장, 서면평가 구분으로 효율적인 평가가 이뤄지면서 우수한 관광사업체가 지정될 수 있었다"며 "앞으로도 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고 선정된 업체에 대한 지원을 확대하는 방향으로 추진해 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 2017년 우수관광사업체 지정...선정된 43곳은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 2017년 우수관광사업체 지정...선정된 43곳은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 2017년 우수관광사업체 지정...선정된 43곳은? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.07.02 08:47 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 2017년 상반기 제주도 우수관광사업체로 43개 업체가 선정됐다.제주특별자치도는 2017년 상반기 우수관광사업체 신청업체에 대한 심의결과 신청업체 54곳 중 관광지, 교통, 숙박, 여행업, 음식 5개 분야에 43개 업체가 지정됐다고 2일 밝혔다.제주도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매해 상·하반기 우수관광사업체를 공모하여 지정하고 있다.이의 지정은 공모에 신청한 관광사업체의 신청서류, 행정처분 여부 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 선정되고 있는데, 지정 기간은 2년이다.지정된 업체에 대해서는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급된다.또 제주도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.이승찬 제주특별자치도 관광국장은 "지난 5월 우수관광사업체 평가표 개정으로 평가기준이 강화되고, 현장, 서면평가 구분으로 효율적인 평가가 이뤄지면서 우수한 관광사업체가 지정될 수 있었다"면서 "앞으로도 우수관광사업체 지정업체에 대한 관광객의 신뢰도를 확보하고, 선정된업체에 대한 지원을 확대하는 방향으로 추진해 나갈 계획"이라고 말했다.다음은 이번에 우수관광사업체로 지정된 업체 명단.△관광지=산굼부리, 자동차박물관, 제주테디베어뮤지엄, 플레이케이팝, 아프리카박물관, 김녕요트투어, 제주레일바이크, 서귀포잠수함, 일출랜드, 퍼시픽랜드, 요트투어샹그릴라, 대유랜드, 씨월드, 생각하는정원, 제주민속촌, 여미지식물원, 김녕미로공원, 한림공원, 소인국테마파크, 휴애리, 방림원, 러브랜드△교통=동서양고속, 오케이렌트카△숙박=파인비치, 포시즌, 스카이라인휴양펜션, 헌스빌 펜션, 스카이리더스호텔, 뉴제주호텔,비치스토리호텔, 엘루이호텔△여행업=문주란, 제이트립△음식점=다미진, 서귀포흑돈, 고집돌우럭, 씨푸드샹그릴라, 천해천, 돌바르방뚝배기, 제주오라성, 사해방, 쌍둥이횟집본점. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 사회일반 제주도·유니세프, 관광지 등 18곳에 어린이 놀이판 설치 김동일 기자 승인 2017.07.09 13:08 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 조만간 협약 맺어 ‘맘껏 놀자 바닥놀이판’ 사업 추진 [제주일보=김동일 기자] 제주도정과 유니세프가 도내 어린이들의 놀이문화를 확산하기 위해 관광지와 공원, 초등학교 등에 놀이판을 설치한다.9일 제주특별자치도와 유니세프 한국위원회 등에 따르면 탑동광장, 레포츠공원 등 18곳에 ‘맘껏 놀자 바닥놀이판’이 들어선다.이 같은 놀이판 설치는 어린이들의 성장·발달 지원과 놀이문화 확산 등을 위한 것으로, 유명 관광지는 물론 공원, 주거지역, 초등학교 등 모두 18곳에 설치될 예정이다.제주도는 조만간 유니세프 한국위원회와 협약을 맺어 사업을 추진할 계획으로 바닥놀이판이 들어서면 어린이들의 비만 문제 개선은 물론 성장 발달 등에 기여할 것으로 기대하고 있다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +637,227 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
